--- a/实体 entity/Entity Ride Heights.xlsx
+++ b/实体 entity/Entity Ride Heights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Minecraft\tree-hole\实体 entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75CAFBC-3C64-43C0-B8C9-427836AC76B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59900826-6E41-444E-8A88-A7AE05A14050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="62">
   <si>
     <t>The last 5 columns are for calculations, just adjusting the height based on which entities are used</t>
   </si>
@@ -80,15 +80,6 @@
     <t>Boat</t>
   </si>
   <si>
-    <t>Bamboo Raft</t>
-  </si>
-  <si>
-    <t>pig</t>
-  </si>
-  <si>
-    <t>donkey</t>
-  </si>
-  <si>
     <t>Mule</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
   </si>
   <si>
     <t>Llama</t>
-  </si>
-  <si>
-    <t>horse</t>
   </si>
   <si>
     <t>Strider</t>
@@ -344,6 +332,17 @@
     <t>The mob's eyeline y level in relation to the ground. If this is within a solid block the mob will suffocate. (Rail one +1 pixels)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Zombified Piglin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camel sitting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raft</t>
+  </si>
 </sst>
 </file>
 
@@ -555,18 +554,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{8D6771BB-58B0-47F2-9249-E3DC5351C918}"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -605,20 +593,8 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -669,139 +645,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1090,24 +933,24 @@
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="1.20.1- Ride Heights (Blocks)-style" pivot="0" count="3" xr9:uid="{6B6993D4-97D8-4374-905A-B78CB5DF4077}">
-      <tableStyleElement type="headerRow" dxfId="50"/>
-      <tableStyleElement type="firstRowStripe" dxfId="49"/>
-      <tableStyleElement type="secondRowStripe" dxfId="48"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="firstRowStripe" dxfId="34"/>
+      <tableStyleElement type="secondRowStripe" dxfId="33"/>
     </tableStyle>
     <tableStyle name="1.20.1- Ride Heights (Pixels)-style" pivot="0" count="3" xr9:uid="{23CA1FE2-706B-4544-96DF-7B01569E5C90}">
-      <tableStyleElement type="headerRow" dxfId="47"/>
-      <tableStyleElement type="firstRowStripe" dxfId="46"/>
-      <tableStyleElement type="secondRowStripe" dxfId="45"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
     <tableStyle name="1.20.4+ Ride Heights (Blocks)-style" pivot="0" count="3" xr9:uid="{3145A76D-594E-4BA5-A0DA-E221FF877FE9}">
-      <tableStyleElement type="headerRow" dxfId="44"/>
-      <tableStyleElement type="firstRowStripe" dxfId="43"/>
-      <tableStyleElement type="secondRowStripe" dxfId="42"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
     </tableStyle>
     <tableStyle name="1.20.4+ Ride Heights (Pixels)-style" pivot="0" count="3" xr9:uid="{9E18C9FD-A393-428A-94D3-53D7CFEC0D89}">
-      <tableStyleElement type="headerRow" dxfId="41"/>
-      <tableStyleElement type="firstRowStripe" dxfId="40"/>
-      <tableStyleElement type="secondRowStripe" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1171,16 +1014,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0C60202F-B5CB-4843-9E8C-D6A64E6F9F8C}" name="Table_1" displayName="Table_1" ref="A2:M46" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0C60202F-B5CB-4843-9E8C-D6A64E6F9F8C}" name="Table_1" displayName="Table_1" ref="A2:M52" headerRowCount="0">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{43A4965D-964F-4F6F-8B2D-48106909BDF6}" name="Column1" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{43A4965D-964F-4F6F-8B2D-48106909BDF6}" name="Column1" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{74165040-79F6-4CB4-B810-6D91D8D6C18B}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{37488169-D7B4-42DC-8533-921E9E2BC618}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{9E44E31B-E7CB-40F2-8C41-11DA02F57A1E}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{8B5722CB-D228-4DE3-A680-B942C5506B11}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{8956B422-A019-4516-80EE-B7AF4C53D025}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{2C49505E-2274-4C46-8223-20C75AC2A02B}" name="Column7" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{0D1694B0-4F11-451D-8C84-89ACF63B817B}" name="Column8" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{2C49505E-2274-4C46-8223-20C75AC2A02B}" name="Column7" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{0D1694B0-4F11-451D-8C84-89ACF63B817B}" name="Column8" dataDxfId="21"/>
     <tableColumn id="9" xr3:uid="{69E0CDDB-52BC-4B21-B8B2-16FE3FAD2A93}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{F8093E3D-0A92-4DEB-9441-B3771647CE13}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{910EFB3D-463E-4CDC-B50A-BFB97D760EEE}" name="Column11"/>
@@ -1192,16 +1035,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A8A014BC-A953-42EC-9BFB-B461200B26B0}" name="Table_2" displayName="Table_2" ref="A2:M46" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A8A014BC-A953-42EC-9BFB-B461200B26B0}" name="Table_2" displayName="Table_2" ref="A2:M52" headerRowCount="0">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1CA0DA67-F94A-43E1-BCA3-D7F632B74587}" name="Column1" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{1CA0DA67-F94A-43E1-BCA3-D7F632B74587}" name="Column1" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{763C036C-C024-4E4C-9513-AD2008749CA8}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{C647D1CD-C22D-403D-BF9C-CC428F2B8256}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{8D3380B5-0057-433A-B3B3-F53E930425BE}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{8282F153-6EB7-447B-84CA-A12A18CA77B3}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{482524FE-2C41-4706-A7A3-8F55FD6B11AD}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{EBF2FA6C-4580-4D94-8582-7AC44644BB60}" name="Column7" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{78EE47DC-6096-448A-940E-9A8F3779C718}" name="Column8" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{EBF2FA6C-4580-4D94-8582-7AC44644BB60}" name="Column7" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{78EE47DC-6096-448A-940E-9A8F3779C718}" name="Column8" dataDxfId="18"/>
     <tableColumn id="9" xr3:uid="{FBD1976E-2770-4F4C-BD9D-DABD7C583434}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{C8B7FDA1-B688-453E-8A09-B143AF0E213F}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{7A8EF823-E3D6-4C22-8C08-8028D0758DFF}" name="Column11"/>
@@ -1215,14 +1058,14 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{318357A1-B815-4327-BAC4-93523134B59F}" name="Table_3" displayName="Table_3" ref="A2:M44" headerRowCount="0">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{65E816FD-9BCD-4052-86A1-2B8969136BAD}" name="Column1" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{65E816FD-9BCD-4052-86A1-2B8969136BAD}" name="Column1" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{CBFCAE0C-510C-465A-962B-E6A9DDD15473}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{ECF82FBD-A549-4FB0-9013-36795A2A2063}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{4E9C2AC3-1B7F-4F71-B129-A0478752A3E3}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{3B3DFFDC-2C89-443C-9179-6023BE3077A7}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{490089BE-DE5E-451E-8617-EB9097686394}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{7CD2796E-6933-44B4-8998-DE7EADB06A1B}" name="Column7" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{F8678D43-A843-4793-9A37-662814D1713E}" name="Column8" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{7CD2796E-6933-44B4-8998-DE7EADB06A1B}" name="Column7" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{F8678D43-A843-4793-9A37-662814D1713E}" name="Column8" dataDxfId="15"/>
     <tableColumn id="9" xr3:uid="{F260767C-2B45-477E-9127-8140279F5A2E}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{CED8B961-0A9C-496A-9ECB-B6737E596E3C}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{30CDF02E-5FC9-431F-93EB-1CF60222DCE6}" name="Column11"/>
@@ -1236,14 +1079,14 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BC3890EB-5A24-4C82-BEB4-56DD4CA1D911}" name="Table_4" displayName="Table_4" ref="A2:M44" headerRowCount="0">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{499B55EC-BE26-4DBE-9E14-4AEA804928B3}" name="Column1" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{499B55EC-BE26-4DBE-9E14-4AEA804928B3}" name="Column1" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{8D954217-2113-494A-B225-4743F81EF2BE}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{CB56D995-8059-489A-A0EA-8C09C6E69CB6}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{68A5F15D-EFA6-4543-8D98-9FDCFCE1C266}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{B30F920E-8773-48CF-B9BD-7A83A845DB34}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{1485DC6D-9CBF-40A3-AD9E-13EE3D77D9D8}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{D266E206-2814-494C-A8A6-59682599953F}" name="Column7" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{1BA576A9-2D13-4267-A988-7E033EBCA1FC}" name="Column8" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{D266E206-2814-494C-A8A6-59682599953F}" name="Column7" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{1BA576A9-2D13-4267-A988-7E033EBCA1FC}" name="Column8" dataDxfId="12"/>
     <tableColumn id="9" xr3:uid="{7ABF83CB-9163-4F50-AC4C-02355A0DF110}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{6BD73AD2-4529-441C-8CA1-8D60F36C5434}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{A9352EF2-1D5B-409B-A8D5-328F7CB288E9}" name="Column11"/>
@@ -1533,12 +1376,12 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1546,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -1564,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -1579,7 +1422,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>4</v>
@@ -1600,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -1615,10 +1458,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -1633,17 +1476,17 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1673,9 +1516,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26207E-1334-4633-A049-242B47862D3D}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
@@ -1695,20 +1538,20 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="11"/>
       <c r="J1" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
@@ -1718,7 +1561,7 @@
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -1727,22 +1570,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -1764,26 +1607,26 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3" s="8" t="str">
-        <f t="shared" ref="E3:E46" si="0">INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</f>
+        <f t="shared" ref="E3" si="0">INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</f>
         <v>1m 9.92px</v>
       </c>
       <c r="F3" s="8" t="str">
-        <f t="shared" ref="F3:F46" si="1">INT(SUM(J3:L3)+0.0625+1.62)&amp;"m "&amp;((SUM(J3:L3)+0.0625+1.62)-INT(SUM(J3:L3)+0.0625+1.62))*16&amp;"px"</f>
+        <f t="shared" ref="F3" si="1">INT(SUM(J3:L3)+0.0625+1.62)&amp;"m "&amp;((SUM(J3:L3)+0.0625+1.62)-INT(SUM(J3:L3)+0.0625+1.62))*16&amp;"px"</f>
         <v>1m 10.92px</v>
       </c>
       <c r="G3" s="12" t="str">
-        <f t="shared" ref="G3:G46" si="2">INT(SUM(J3:L3))&amp;"m "&amp;((SUM(J3:L3))-INT(SUM(J3:L3)))*16&amp;"px"</f>
+        <f t="shared" ref="G3" si="2">INT(SUM(J3:L3))&amp;"m "&amp;((SUM(J3:L3))-INT(SUM(J3:L3)))*16&amp;"px"</f>
         <v>0m 0px</v>
       </c>
       <c r="H3" s="12" t="str">
-        <f t="shared" ref="H3:H46" si="3">INT(SUM(J3:L3)+0.0625)&amp;"m "&amp;((SUM(J3:L3)+0.0625)-INT(SUM(J3:L3)+0.0625))*16&amp;"px"</f>
+        <f t="shared" ref="H3" si="3">INT(SUM(J3:L3)+0.0625)&amp;"m "&amp;((SUM(J3:L3)+0.0625)-INT(SUM(J3:L3)+0.0625))*16&amp;"px"</f>
         <v>0m 1px</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I15" si="4">INT(SUM(J3:K3)+M3)&amp;"m "&amp;((SUM(J3:K3)+M3)-INT(SUM(J3:K3)+M3))*16&amp;"px"</f>
+        <f t="shared" ref="I3" si="4">INT(SUM(J3:K3)+M3)&amp;"m "&amp;((SUM(J3:K3)+M3)-INT(SUM(J3:K3)+M3))*16&amp;"px"</f>
         <v>1m 9.92px</v>
       </c>
       <c r="J3" s="9"/>
@@ -1804,26 +1647,26 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8" t="str">
-        <f t="shared" ref="E4:E46" si="5">INT(SUM(J4:L4)+1.62)&amp;"m "&amp;((SUM(J4:L4)+1.62)-INT(SUM(J4:L4)+1.62))*16&amp;"px"</f>
+        <f t="shared" ref="E4:E52" si="5">INT(SUM(J4:L4)+1.62)&amp;"m "&amp;((SUM(J4:L4)+1.62)-INT(SUM(J4:L4)+1.62))*16&amp;"px"</f>
         <v>1m 3.32px</v>
       </c>
       <c r="F4" s="8" t="str">
-        <f t="shared" ref="F4:F46" si="6">INT(SUM(J4:L4)+0.0625+1.62)&amp;"m "&amp;((SUM(J4:L4)+0.0625+1.62)-INT(SUM(J4:L4)+0.0625+1.62))*16&amp;"px"</f>
+        <f t="shared" ref="F4:F52" si="6">INT(SUM(J4:L4)+0.0625+1.62)&amp;"m "&amp;((SUM(J4:L4)+0.0625+1.62)-INT(SUM(J4:L4)+0.0625+1.62))*16&amp;"px"</f>
         <v>1m 4.32px</v>
       </c>
       <c r="G4" s="12" t="str">
-        <f t="shared" ref="G4:G46" si="7">INT(SUM(J4:L4))&amp;"m "&amp;((SUM(J4:L4))-INT(SUM(J4:L4)))*16&amp;"px"</f>
+        <f t="shared" ref="G4:G52" si="7">INT(SUM(J4:L4))&amp;"m "&amp;((SUM(J4:L4))-INT(SUM(J4:L4)))*16&amp;"px"</f>
         <v>-1m 9.4px</v>
       </c>
       <c r="H4" s="12" t="str">
-        <f t="shared" ref="H4:H46" si="8">INT(SUM(J4:L4)+0.0625)&amp;"m "&amp;((SUM(J4:L4)+0.0625)-INT(SUM(J4:L4)+0.0625))*16&amp;"px"</f>
+        <f t="shared" ref="H4:H52" si="8">INT(SUM(J4:L4)+0.0625)&amp;"m "&amp;((SUM(J4:L4)+0.0625)-INT(SUM(J4:L4)+0.0625))*16&amp;"px"</f>
         <v>-1m 10.4px</v>
       </c>
       <c r="I4" s="8" t="str">
-        <f t="shared" ref="I4:I46" si="9">INT(SUM(J4:K4)+M4)&amp;"m "&amp;((SUM(J4:K4)+M4)-INT(SUM(J4:K4)+M4))*16&amp;"px"</f>
+        <f t="shared" ref="I4:I52" si="9">INT(SUM(J4:K4)+M4)&amp;"m "&amp;((SUM(J4:K4)+M4)-INT(SUM(J4:K4)+M4))*16&amp;"px"</f>
         <v>1m 3.32px</v>
       </c>
       <c r="J4" s="9">
@@ -1846,7 +1689,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1885,10 +1728,10 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1932,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1975,10 +1818,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2020,7 +1863,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2060,7 +1903,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2100,7 +1943,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2140,7 +1983,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2180,7 +2023,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2220,7 +2063,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2260,7 +2103,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E15" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2300,7 +2143,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E16" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2340,7 +2183,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E17" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2380,7 +2223,7 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E18" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2420,35 +2263,35 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E19" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>5m 0.319999999999993px</v>
+        <v>3m 0.32px</v>
       </c>
       <c r="F19" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>5m 1.31999999999999px</v>
+        <v>3m 1.32px</v>
       </c>
       <c r="G19" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>3m 6.4px</v>
+        <v>1m 6.4px</v>
       </c>
       <c r="H19" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>3m 7.4px</v>
+        <v>1m 7.4px</v>
       </c>
       <c r="I19" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 9.6px</v>
+        <v>1m 12.64px</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="M19" s="9">
-        <v>2.6</v>
+        <v>1.79</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2457,42 +2300,38 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E20" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 1.22px</v>
+        <v>5m 0.319999999999993px</v>
       </c>
       <c r="F20" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 2.22px</v>
+        <v>5m 1.31999999999999px</v>
       </c>
       <c r="G20" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 7.3px</v>
+        <v>3m 6.4px</v>
       </c>
       <c r="H20" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 8.3px</v>
+        <v>3m 7.4px</v>
       </c>
       <c r="I20" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>0m 15.24px</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>2m 9.6px</v>
+      </c>
+      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9">
-        <v>0.26874999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="M20" s="9">
-        <v>0.76500000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2506,37 +2345,37 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E21" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 5.12px</v>
+        <v>2m 1.22px</v>
       </c>
       <c r="F21" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 6.12px</v>
+        <v>2m 2.22px</v>
       </c>
       <c r="G21" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 11.2px</v>
+        <v>0m 7.3px</v>
       </c>
       <c r="H21" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 12.2px</v>
+        <v>0m 8.3px</v>
       </c>
       <c r="I21" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 9.8px</v>
+        <v>0m 15.24px</v>
       </c>
       <c r="J21" s="9">
         <v>0.1875</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9">
-        <v>0.51249999999999996</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M21" s="9">
-        <v>1.425</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2550,37 +2389,37 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E22" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 6.72px</v>
+        <v>2m 5.12px</v>
       </c>
       <c r="F22" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 7.72px</v>
+        <v>2m 6.12px</v>
       </c>
       <c r="G22" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 12.8px</v>
+        <v>0m 11.2px</v>
       </c>
       <c r="H22" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 13.8px</v>
+        <v>0m 12.2px</v>
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 11.32px</v>
+        <v>1m 9.8px</v>
       </c>
       <c r="J22" s="9">
         <v>0.1875</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9">
-        <v>0.61250000000000004</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="M22" s="9">
-        <v>1.52</v>
+        <v>1.425</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2594,23 +2433,23 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E23" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 8.42px</v>
+        <v>2m 6.72px</v>
       </c>
       <c r="F23" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 9.42px</v>
+        <v>2m 7.72px</v>
       </c>
       <c r="G23" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 14.5px</v>
+        <v>0m 12.8px</v>
       </c>
       <c r="H23" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 15.5px</v>
+        <v>0m 13.8px</v>
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" si="9"/>
@@ -2621,7 +2460,7 @@
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9">
-        <v>0.71875</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="M23" s="9">
         <v>1.52</v>
@@ -2638,37 +2477,37 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E24" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 9.24px</v>
+        <v>2m 8.42px</v>
       </c>
       <c r="F24" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 10.24px</v>
+        <v>2m 9.42px</v>
       </c>
       <c r="G24" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 15.32px</v>
+        <v>0m 14.5px</v>
       </c>
       <c r="H24" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 0.32px</v>
+        <v>0m 15.5px</v>
       </c>
       <c r="I24" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 15.424px</v>
+        <v>1m 11.32px</v>
       </c>
       <c r="J24" s="9">
         <v>0.1875</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9">
-        <v>0.77</v>
+        <v>0.71875</v>
       </c>
       <c r="M24" s="9">
-        <v>1.7765</v>
+        <v>1.52</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2682,37 +2521,37 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E25" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 10.42px</v>
+        <v>2m 9.24px</v>
       </c>
       <c r="F25" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 11.42px</v>
+        <v>2m 10.24px</v>
       </c>
       <c r="G25" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 0.5px</v>
+        <v>0m 15.32px</v>
       </c>
       <c r="H25" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 1.5px</v>
+        <v>1m 0.32px</v>
       </c>
       <c r="I25" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 11.32px</v>
+        <v>1m 15.424px</v>
       </c>
       <c r="J25" s="9">
         <v>0.1875</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9">
-        <v>0.84375</v>
+        <v>0.77</v>
       </c>
       <c r="M25" s="9">
-        <v>1.52</v>
+        <v>1.7765</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -2726,37 +2565,37 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E26" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 14.52px</v>
+        <v>2m 10.42px</v>
       </c>
       <c r="F26" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 15.52px</v>
+        <v>2m 11.42px</v>
       </c>
       <c r="G26" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 4.6px</v>
+        <v>1m 0.5px</v>
       </c>
       <c r="H26" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 5.6px</v>
+        <v>1m 1.5px</v>
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 10.12px</v>
+        <v>1m 11.32px</v>
       </c>
       <c r="J26" s="9">
         <v>0.1875</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.84375</v>
       </c>
       <c r="M26" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -2770,23 +2609,23 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E27" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>4m 9.72px</v>
+        <v>2m 14.52px</v>
       </c>
       <c r="F27" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>4m 10.72px</v>
+        <v>2m 15.52px</v>
       </c>
       <c r="G27" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>2m 15.8px</v>
+        <v>1m 4.6px</v>
       </c>
       <c r="H27" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>3m 0.799999999999997px</v>
+        <v>1m 5.6px</v>
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" si="9"/>
@@ -2797,7 +2636,7 @@
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9">
-        <v>2.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M27" s="9">
         <v>1.4450000000000001</v>
@@ -2814,37 +2653,37 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E28" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>1m 15.64px</v>
+        <v>4m 9.72px</v>
       </c>
       <c r="F28" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 0.640000000000001px</v>
+        <v>4m 10.72px</v>
       </c>
       <c r="G28" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 5.72px</v>
+        <v>2m 15.8px</v>
       </c>
       <c r="H28" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 6.72px</v>
+        <v>3m 0.799999999999997px</v>
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 3.72px</v>
+        <v>1m 10.12px</v>
       </c>
       <c r="J28" s="9">
         <v>0.1875</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9">
-        <v>0.17</v>
+        <v>2.8</v>
       </c>
       <c r="M28" s="9">
-        <v>1.0449999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -2858,37 +2697,37 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E29" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>3m 3.32px</v>
+        <v>1m 15.64px</v>
       </c>
       <c r="F29" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>3m 4.32px</v>
+        <v>2m 0.640000000000001px</v>
       </c>
       <c r="G29" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 9.4px</v>
+        <v>0m 5.72px</v>
       </c>
       <c r="H29" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 10.4px</v>
+        <v>0m 6.72px</v>
       </c>
       <c r="I29" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 7.4px</v>
+        <v>1m 3.72px</v>
       </c>
       <c r="J29" s="9">
         <v>0.1875</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9">
-        <v>1.4</v>
+        <v>0.17</v>
       </c>
       <c r="M29" s="9">
-        <v>2.2749999999999999</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2902,37 +2741,37 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E30" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>5m 11.32px</v>
+        <v>3m 3.32px</v>
       </c>
       <c r="F30" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>5m 12.32px</v>
+        <v>3m 4.32px</v>
       </c>
       <c r="G30" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>4m 1.40000000000001px</v>
+        <v>1m 9.4px</v>
       </c>
       <c r="H30" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>4m 2.40000000000001px</v>
+        <v>1m 10.4px</v>
       </c>
       <c r="I30" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>3m 4.6px</v>
+        <v>2m 7.4px</v>
       </c>
       <c r="J30" s="9">
-        <v>0.6875</v>
+        <v>0.1875</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="M30" s="9">
-        <v>2.6</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2941,42 +2780,42 @@
       <c r="A31" s="12">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E31" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 1.22px</v>
+        <v>2m 9.12px</v>
       </c>
       <c r="F31" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 2.22px</v>
+        <v>2m 10.12px</v>
       </c>
       <c r="G31" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 7.3px</v>
+        <v>0m 15.2px</v>
       </c>
       <c r="H31" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 8.3px</v>
+        <v>1m 0.199999999999999px</v>
       </c>
       <c r="I31" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>0m 15.24px</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1m 5.44px</v>
+      </c>
+      <c r="J31" s="9">
+        <v>-0.45</v>
+      </c>
+      <c r="K31" s="9"/>
       <c r="L31" s="9">
-        <v>0.26874999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M31" s="9">
-        <v>0.76500000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -2985,42 +2824,42 @@
       <c r="A32" s="12">
         <v>29</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E32" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 9.24px</v>
+        <v>5m 11.32px</v>
       </c>
       <c r="F32" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 10.24px</v>
+        <v>5m 12.32px</v>
       </c>
       <c r="G32" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 15.32px</v>
+        <v>4m 1.40000000000001px</v>
       </c>
       <c r="H32" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 0.32px</v>
+        <v>4m 2.40000000000001px</v>
       </c>
       <c r="I32" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 15.424px</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>3m 4.6px</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.6875</v>
+      </c>
+      <c r="K32" s="9"/>
       <c r="L32" s="9">
-        <v>0.77</v>
+        <v>3.4</v>
       </c>
       <c r="M32" s="9">
-        <v>1.7765</v>
+        <v>2.6</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -3034,37 +2873,37 @@
         <v>11</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E33" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 14.52px</v>
+        <v>2m 1.22px</v>
       </c>
       <c r="F33" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 15.52px</v>
+        <v>2m 2.22px</v>
       </c>
       <c r="G33" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 4.6px</v>
+        <v>0m 7.3px</v>
       </c>
       <c r="H33" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 5.6px</v>
+        <v>0m 8.3px</v>
       </c>
       <c r="I33" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 10.12px</v>
+        <v>0m 15.24px</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9">
         <v>0.1875</v>
       </c>
       <c r="L33" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M33" s="9">
-        <v>1.4450000000000001</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -3078,37 +2917,37 @@
         <v>11</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E34" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>4m 9.72px</v>
+        <v>2m 9.24px</v>
       </c>
       <c r="F34" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>4m 10.72px</v>
+        <v>2m 10.24px</v>
       </c>
       <c r="G34" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>2m 15.8px</v>
+        <v>0m 15.32px</v>
       </c>
       <c r="H34" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>3m 0.799999999999997px</v>
+        <v>1m 0.32px</v>
       </c>
       <c r="I34" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 10.12px</v>
+        <v>1m 15.424px</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9">
         <v>0.1875</v>
       </c>
       <c r="L34" s="9">
-        <v>2.8</v>
+        <v>0.77</v>
       </c>
       <c r="M34" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.7765</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -3119,40 +2958,40 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E35" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 6.22px</v>
+        <v>2m 8.12px</v>
       </c>
       <c r="F35" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 7.22px</v>
+        <v>2m 9.12px</v>
       </c>
       <c r="G35" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 12.3px</v>
+        <v>0m 14.2px</v>
       </c>
       <c r="H35" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 13.3px</v>
+        <v>0m 15.2px</v>
       </c>
       <c r="I35" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 4.24px</v>
+        <v>1m 4.44px</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9">
-        <v>0.5</v>
+        <v>-0.51249999999999996</v>
       </c>
       <c r="L35" s="9">
-        <v>0.26874999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M35" s="9">
-        <v>0.76500000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3163,40 +3002,40 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 14.24px</v>
+        <v>2m 14.52px</v>
       </c>
       <c r="F36" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 15.24px</v>
+        <v>2m 15.52px</v>
       </c>
       <c r="G36" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 4.32px</v>
+        <v>1m 4.6px</v>
       </c>
       <c r="H36" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 5.32px</v>
+        <v>1m 5.6px</v>
       </c>
       <c r="I36" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 4.424px</v>
+        <v>1m 10.12px</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L36" s="9">
-        <v>0.77</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M36" s="9">
-        <v>1.7765</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3207,37 +3046,37 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E37" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>3m 3.52px</v>
+        <v>4m 9.72px</v>
       </c>
       <c r="F37" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>3m 4.52px</v>
+        <v>4m 10.72px</v>
       </c>
       <c r="G37" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 9.6px</v>
+        <v>2m 15.8px</v>
       </c>
       <c r="H37" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 10.6px</v>
+        <v>3m 0.799999999999997px</v>
       </c>
       <c r="I37" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 15.12px</v>
+        <v>1m 10.12px</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L37" s="9">
-        <v>1.1000000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="M37" s="9">
         <v>1.4450000000000001</v>
@@ -3251,40 +3090,40 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E38" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>4m 14.72px</v>
+        <v>2m 6.22px</v>
       </c>
       <c r="F38" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>4m 15.72px</v>
+        <v>2m 7.22px</v>
       </c>
       <c r="G38" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>3m 4.8px</v>
+        <v>0m 12.3px</v>
       </c>
       <c r="H38" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>3m 5.8px</v>
+        <v>0m 13.3px</v>
       </c>
       <c r="I38" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 15.12px</v>
+        <v>1m 4.24px</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9">
         <v>0.5</v>
       </c>
       <c r="L38" s="9">
-        <v>2.8</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M38" s="9">
-        <v>1.4450000000000001</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3293,46 +3132,42 @@
       <c r="A39" s="12">
         <v>36</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E39" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 4.22px</v>
+        <v>2m 14.24px</v>
       </c>
       <c r="F39" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 5.22px</v>
+        <v>2m 15.24px</v>
       </c>
       <c r="G39" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 10.3px</v>
+        <v>1m 4.32px</v>
       </c>
       <c r="H39" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 11.3px</v>
+        <v>1m 5.32px</v>
       </c>
       <c r="I39" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 2.24px</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>2m 4.424px</v>
+      </c>
+      <c r="J39" s="9"/>
       <c r="K39" s="9">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="L39" s="9">
-        <v>0.26874999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="M39" s="9">
-        <v>0.76500000000000001</v>
+        <v>1.7765</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3341,46 +3176,42 @@
       <c r="A40" s="12">
         <v>37</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E40" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 12.24px</v>
+        <v>2m 13.12px</v>
       </c>
       <c r="F40" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 13.24px</v>
+        <v>2m 14.12px</v>
       </c>
       <c r="G40" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 2.32px</v>
+        <v>1m 3.2px</v>
       </c>
       <c r="H40" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 3.32px</v>
+        <v>1m 4.2px</v>
       </c>
       <c r="I40" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 2.424px</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1m 9.44px</v>
+      </c>
+      <c r="J40" s="9"/>
       <c r="K40" s="9">
-        <v>0.1875</v>
+        <v>-0.2</v>
       </c>
       <c r="L40" s="9">
-        <v>0.77</v>
+        <v>1.4</v>
       </c>
       <c r="M40" s="9">
-        <v>1.7765</v>
+        <v>1.79</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -3389,40 +3220,36 @@
       <c r="A41" s="12">
         <v>38</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E41" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>3m 1.52px</v>
+        <v>3m 3.52px</v>
       </c>
       <c r="F41" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>3m 2.52px</v>
+        <v>3m 4.52px</v>
       </c>
       <c r="G41" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 7.6px</v>
+        <v>1m 9.6px</v>
       </c>
       <c r="H41" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 8.6px</v>
+        <v>1m 10.6px</v>
       </c>
       <c r="I41" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 13.12px</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1m 15.12px</v>
+      </c>
+      <c r="J41" s="9"/>
       <c r="K41" s="9">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="L41" s="9">
         <v>1.1000000000000001</v>
@@ -3437,40 +3264,36 @@
       <c r="A42" s="12">
         <v>39</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E42" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>4m 12.72px</v>
+        <v>4m 14.72px</v>
       </c>
       <c r="F42" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>4m 13.72px</v>
+        <v>4m 15.72px</v>
       </c>
       <c r="G42" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>3m 2.8px</v>
+        <v>3m 4.8px</v>
       </c>
       <c r="H42" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>3m 3.8px</v>
+        <v>3m 5.8px</v>
       </c>
       <c r="I42" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 13.12px</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1m 15.12px</v>
+      </c>
+      <c r="J42" s="9"/>
       <c r="K42" s="9">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="L42" s="9">
         <v>2.8</v>
@@ -3489,36 +3312,36 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E43" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 9.22px</v>
+        <v>2m 4.22px</v>
       </c>
       <c r="F43" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 10.22px</v>
+        <v>2m 5.22px</v>
       </c>
       <c r="G43" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 15.3px</v>
+        <v>0m 10.3px</v>
       </c>
       <c r="H43" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 0.300000000000001px</v>
+        <v>0m 11.3px</v>
       </c>
       <c r="I43" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 7.24px</v>
+        <v>1m 2.24px</v>
       </c>
       <c r="J43" s="9">
         <v>0.1875</v>
       </c>
       <c r="K43" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L43" s="9">
         <v>0.26874999999999999</v>
@@ -3537,36 +3360,36 @@
         <v>7</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E44" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>3m 1.24px</v>
+        <v>2m 12.24px</v>
       </c>
       <c r="F44" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>3m 2.24px</v>
+        <v>2m 13.24px</v>
       </c>
       <c r="G44" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 7.32px</v>
+        <v>1m 2.32px</v>
       </c>
       <c r="H44" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 8.32px</v>
+        <v>1m 3.32px</v>
       </c>
       <c r="I44" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 7.424px</v>
+        <v>2m 2.424px</v>
       </c>
       <c r="J44" s="9">
         <v>0.1875</v>
       </c>
       <c r="K44" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L44" s="9">
         <v>0.77</v>
@@ -3585,42 +3408,42 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E45" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>3m 6.52px</v>
+        <v>2m 11.12px</v>
       </c>
       <c r="F45" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>3m 7.52px</v>
+        <v>2m 12.12px</v>
       </c>
       <c r="G45" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 12.6px</v>
+        <v>1m 1.2px</v>
       </c>
       <c r="H45" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 13.6px</v>
+        <v>1m 2.2px</v>
       </c>
       <c r="I45" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 2.12px</v>
+        <v>1m 7.44px</v>
       </c>
       <c r="J45" s="9">
         <v>0.1875</v>
       </c>
       <c r="K45" s="9">
-        <v>0.5</v>
+        <v>-0.51249999999999996</v>
       </c>
       <c r="L45" s="9">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="M45" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -3633,39 +3456,39 @@
         <v>7</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E46" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>5m 1.72px</v>
+        <v>3m 1.52px</v>
       </c>
       <c r="F46" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>5m 2.72px</v>
+        <v>3m 2.52px</v>
       </c>
       <c r="G46" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>3m 7.8px</v>
+        <v>1m 7.6px</v>
       </c>
       <c r="H46" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>3m 8.8px</v>
+        <v>1m 8.6px</v>
       </c>
       <c r="I46" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 2.12px</v>
+        <v>1m 13.12px</v>
       </c>
       <c r="J46" s="9">
         <v>0.1875</v>
       </c>
       <c r="K46" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L46" s="9">
-        <v>2.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M46" s="9">
         <v>1.4450000000000001</v>
@@ -3674,17 +3497,305 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="A47" s="12">
+        <v>44</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>4m 12.72px</v>
+      </c>
+      <c r="F47" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>4m 13.72px</v>
+      </c>
+      <c r="G47" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>3m 2.8px</v>
+      </c>
+      <c r="H47" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>3m 3.8px</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>1m 13.12px</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="L47" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="M47" s="9">
+        <v>1.4450000000000001</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>45</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>2m 9.22px</v>
+      </c>
+      <c r="F48" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>2m 10.22px</v>
+      </c>
+      <c r="G48" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>0m 15.3px</v>
+      </c>
+      <c r="H48" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>1m 0.300000000000001px</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>1m 7.24px</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M48" s="9">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>46</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>3m 1.24px</v>
+      </c>
+      <c r="F49" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>3m 2.24px</v>
+      </c>
+      <c r="G49" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>1m 7.32px</v>
+      </c>
+      <c r="H49" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>1m 8.32px</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>2m 7.424px</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="M49" s="9">
+        <v>1.7765</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>47</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>3m 0.120000000000005px</v>
+      </c>
+      <c r="F50" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>3m 1.12px</v>
+      </c>
+      <c r="G50" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>1m 6.2px</v>
+      </c>
+      <c r="H50" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>1m 7.2px</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>1m 12.44px</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K50" s="9">
+        <v>-0.2</v>
+      </c>
+      <c r="L50" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="M50" s="9">
+        <v>1.79</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>48</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>3m 6.52px</v>
+      </c>
+      <c r="F51" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>3m 7.52px</v>
+      </c>
+      <c r="G51" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>1m 12.6px</v>
+      </c>
+      <c r="H51" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>1m 13.6px</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>2m 2.12px</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M51" s="9">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>49</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>5m 1.72px</v>
+      </c>
+      <c r="F52" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>5m 2.72px</v>
+      </c>
+      <c r="G52" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>3m 7.8px</v>
+      </c>
+      <c r="H52" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>3m 8.8px</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>2m 2.12px</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L52" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="M52" s="9">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3693,15 +3804,15 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E3:I46">
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
-      <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 3</formula>
+  <conditionalFormatting sqref="E3:I52">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+      <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>AND(VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 2, VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
-      <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 2</formula>
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+      <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3714,7 +3825,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728C2B50-FE41-4DD7-B1DD-5217FB61F131}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -3735,20 +3846,20 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="11"/>
       <c r="J1" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
@@ -3758,7 +3869,7 @@
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -3767,22 +3878,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -3804,26 +3915,26 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" ref="E3:E9" si="0">SUM(J3:L3)+1.62</f>
+        <f t="shared" ref="E3" si="0">SUM(J3:L3)+1.62</f>
         <v>1.62</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F9" si="1">SUM(J3:L3)+0.0625+1.62</f>
+        <f t="shared" ref="F3" si="1">SUM(J3:L3)+0.0625+1.62</f>
         <v>1.6825000000000001</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G9" si="2">SUM(J3:L3)</f>
+        <f t="shared" ref="G3" si="2">SUM(J3:L3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H9" si="3">SUM(J3:L3)+0.0625</f>
+        <f t="shared" ref="H3" si="3">SUM(J3:L3)+0.0625</f>
         <v>6.25E-2</v>
       </c>
       <c r="I3" s="8">
-        <f t="shared" ref="I3:I9" si="4">SUM(J3:K3)+M3</f>
+        <f t="shared" ref="I3" si="4">SUM(J3:K3)+M3</f>
         <v>1.62</v>
       </c>
       <c r="J3" s="9"/>
@@ -3844,22 +3955,22 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E46" si="5">SUM(J4:L4)+1.62</f>
+        <f t="shared" ref="E4:E52" si="5">SUM(J4:L4)+1.62</f>
         <v>1.2075</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F46" si="6">SUM(J4:L4)+0.0625+1.62</f>
+        <f t="shared" ref="F4:F52" si="6">SUM(J4:L4)+0.0625+1.62</f>
         <v>1.27</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G46" si="7">SUM(J4:L4)</f>
+        <f t="shared" ref="G4:G52" si="7">SUM(J4:L4)</f>
         <v>-0.41249999999999998</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H46" si="8">SUM(J4:L4)+0.0625</f>
+        <f t="shared" ref="H4:H52" si="8">SUM(J4:L4)+0.0625</f>
         <v>-0.35</v>
       </c>
       <c r="I4" s="8">
@@ -3886,7 +3997,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="5"/>
@@ -3925,10 +4036,10 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="5"/>
@@ -3972,7 +4083,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="5"/>
@@ -4015,10 +4126,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="5"/>
@@ -4060,7 +4171,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="5"/>
@@ -4100,7 +4211,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="5"/>
@@ -4140,7 +4251,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="5"/>
@@ -4180,7 +4291,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="5"/>
@@ -4220,7 +4331,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="5"/>
@@ -4260,7 +4371,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="5"/>
@@ -4300,7 +4411,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="5"/>
@@ -4340,7 +4451,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="5"/>
@@ -4380,7 +4491,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="5"/>
@@ -4420,7 +4531,7 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="5"/>
@@ -4460,35 +4571,35 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="5"/>
-        <v>5.0199999999999996</v>
+        <v>3.02</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="6"/>
-        <v>5.0824999999999996</v>
+        <v>3.0825</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="7"/>
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="8"/>
-        <v>3.4624999999999999</v>
+        <v>1.4624999999999999</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="9"/>
-        <v>2.6</v>
+        <v>1.79</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="M19" s="9">
-        <v>2.6</v>
+        <v>1.79</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -4497,42 +4608,38 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="5"/>
-        <v>2.0762499999999999</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="6"/>
-        <v>2.1387499999999999</v>
+        <v>5.0824999999999996</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="7"/>
-        <v>0.45624999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="8"/>
-        <v>0.51875000000000004</v>
+        <v>3.4624999999999999</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="9"/>
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9">
-        <v>0.26874999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="M20" s="9">
-        <v>0.76500000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -4546,37 +4653,37 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="5"/>
-        <v>2.3200000000000003</v>
+        <v>2.0762499999999999</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="6"/>
-        <v>2.3825000000000003</v>
+        <v>2.1387499999999999</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="7"/>
-        <v>0.7</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="8"/>
-        <v>0.76249999999999996</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" si="9"/>
-        <v>1.6125</v>
+        <v>0.95250000000000001</v>
       </c>
       <c r="J21" s="9">
         <v>0.1875</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9">
-        <v>0.51249999999999996</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M21" s="9">
-        <v>1.425</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -4590,37 +4697,37 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="5"/>
-        <v>2.42</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="6"/>
-        <v>2.4824999999999999</v>
+        <v>2.3825000000000003</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="8"/>
-        <v>0.86250000000000004</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="9"/>
-        <v>1.7075</v>
+        <v>1.6125</v>
       </c>
       <c r="J22" s="9">
         <v>0.1875</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9">
-        <v>0.61250000000000004</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="M22" s="9">
-        <v>1.52</v>
+        <v>1.425</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -4634,23 +4741,23 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="5"/>
-        <v>2.5262500000000001</v>
+        <v>2.42</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="6"/>
-        <v>2.5887500000000001</v>
+        <v>2.4824999999999999</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="7"/>
-        <v>0.90625</v>
+        <v>0.8</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="8"/>
-        <v>0.96875</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="9"/>
@@ -4661,7 +4768,7 @@
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9">
-        <v>0.71875</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="M23" s="9">
         <v>1.52</v>
@@ -4678,37 +4785,37 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="5"/>
-        <v>2.5775000000000001</v>
+        <v>2.5262500000000001</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" si="6"/>
-        <v>2.64</v>
+        <v>2.5887500000000001</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="7"/>
-        <v>0.95750000000000002</v>
+        <v>0.90625</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="8"/>
-        <v>1.02</v>
+        <v>0.96875</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="9"/>
-        <v>1.964</v>
+        <v>1.7075</v>
       </c>
       <c r="J24" s="9">
         <v>0.1875</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9">
-        <v>0.77</v>
+        <v>0.71875</v>
       </c>
       <c r="M24" s="9">
-        <v>1.7765</v>
+        <v>1.52</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -4722,37 +4829,37 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="5"/>
-        <v>2.6512500000000001</v>
+        <v>2.5775000000000001</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="6"/>
-        <v>2.7137500000000001</v>
+        <v>2.64</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="7"/>
-        <v>1.03125</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="8"/>
-        <v>1.09375</v>
+        <v>1.02</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="9"/>
-        <v>1.7075</v>
+        <v>1.964</v>
       </c>
       <c r="J25" s="9">
         <v>0.1875</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9">
-        <v>0.84375</v>
+        <v>0.77</v>
       </c>
       <c r="M25" s="9">
-        <v>1.52</v>
+        <v>1.7765</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -4766,37 +4873,37 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E26" s="8">
         <f t="shared" si="5"/>
-        <v>2.9075000000000002</v>
+        <v>2.6512500000000001</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" si="6"/>
-        <v>2.97</v>
+        <v>2.7137500000000001</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="7"/>
-        <v>1.2875000000000001</v>
+        <v>1.03125</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="8"/>
-        <v>1.35</v>
+        <v>1.09375</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="9"/>
-        <v>1.6325000000000001</v>
+        <v>1.7075</v>
       </c>
       <c r="J26" s="9">
         <v>0.1875</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.84375</v>
       </c>
       <c r="M26" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -4810,23 +4917,23 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="5"/>
-        <v>4.6074999999999999</v>
+        <v>2.9075000000000002</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" si="6"/>
-        <v>4.67</v>
+        <v>2.97</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="7"/>
-        <v>2.9874999999999998</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="8"/>
-        <v>3.05</v>
+        <v>1.35</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="9"/>
@@ -4837,7 +4944,7 @@
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9">
-        <v>2.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M27" s="9">
         <v>1.4450000000000001</v>
@@ -4854,37 +4961,37 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="5"/>
-        <v>1.9775</v>
+        <v>4.6074999999999999</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" si="6"/>
-        <v>2.04</v>
+        <v>4.67</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="7"/>
-        <v>0.35750000000000004</v>
+        <v>2.9874999999999998</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="8"/>
-        <v>0.42000000000000004</v>
+        <v>3.05</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="9"/>
-        <v>1.2324999999999999</v>
+        <v>1.6325000000000001</v>
       </c>
       <c r="J28" s="9">
         <v>0.1875</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9">
-        <v>0.17</v>
+        <v>2.8</v>
       </c>
       <c r="M28" s="9">
-        <v>1.0449999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -4898,37 +5005,37 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E29" s="8">
         <f t="shared" si="5"/>
-        <v>3.2075</v>
+        <v>1.9775</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" si="6"/>
-        <v>3.27</v>
+        <v>2.04</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="7"/>
-        <v>1.5874999999999999</v>
+        <v>0.35750000000000004</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="8"/>
-        <v>1.65</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="9"/>
-        <v>2.4624999999999999</v>
+        <v>1.2324999999999999</v>
       </c>
       <c r="J29" s="9">
         <v>0.1875</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9">
-        <v>1.4</v>
+        <v>0.17</v>
       </c>
       <c r="M29" s="9">
-        <v>2.2749999999999999</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -4942,37 +5049,37 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E30" s="8">
         <f t="shared" si="5"/>
-        <v>5.7075000000000005</v>
+        <v>3.2075</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" si="6"/>
-        <v>5.7700000000000005</v>
+        <v>3.27</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="7"/>
-        <v>4.0875000000000004</v>
+        <v>1.5874999999999999</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="8"/>
-        <v>4.1500000000000004</v>
+        <v>1.65</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="9"/>
-        <v>3.2875000000000001</v>
+        <v>2.4624999999999999</v>
       </c>
       <c r="J30" s="9">
-        <v>0.6875</v>
+        <v>0.1875</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="M30" s="9">
-        <v>2.6</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -4981,42 +5088,42 @@
       <c r="A31" s="12">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" si="5"/>
-        <v>2.0762499999999999</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" si="6"/>
-        <v>2.1387499999999999</v>
+        <v>2.6325000000000003</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="7"/>
-        <v>0.45624999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="8"/>
-        <v>0.51875000000000004</v>
+        <v>1.0125</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="9"/>
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1.34</v>
+      </c>
+      <c r="J31" s="9">
+        <v>-0.45</v>
+      </c>
+      <c r="K31" s="9"/>
       <c r="L31" s="9">
-        <v>0.26874999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M31" s="9">
-        <v>0.76500000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -5025,42 +5132,42 @@
       <c r="A32" s="12">
         <v>29</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" si="5"/>
-        <v>2.5775000000000001</v>
+        <v>5.7075000000000005</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" si="6"/>
-        <v>2.64</v>
+        <v>5.7700000000000005</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="7"/>
-        <v>0.95750000000000002</v>
+        <v>4.0875000000000004</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="8"/>
-        <v>1.02</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="9"/>
-        <v>1.964</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>3.2875000000000001</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.6875</v>
+      </c>
+      <c r="K32" s="9"/>
       <c r="L32" s="9">
-        <v>0.77</v>
+        <v>3.4</v>
       </c>
       <c r="M32" s="9">
-        <v>1.7765</v>
+        <v>2.6</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -5074,37 +5181,37 @@
         <v>11</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="5"/>
-        <v>2.9075000000000002</v>
+        <v>2.0762499999999999</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="6"/>
-        <v>2.97</v>
+        <v>2.1387499999999999</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="7"/>
-        <v>1.2875000000000001</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="8"/>
-        <v>1.35</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="9"/>
-        <v>1.6325000000000001</v>
+        <v>0.95250000000000001</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9">
         <v>0.1875</v>
       </c>
       <c r="L33" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M33" s="9">
-        <v>1.4450000000000001</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -5118,37 +5225,37 @@
         <v>11</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E34" s="8">
         <f t="shared" si="5"/>
-        <v>4.6074999999999999</v>
+        <v>2.5775000000000001</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" si="6"/>
-        <v>4.67</v>
+        <v>2.64</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="7"/>
-        <v>2.9874999999999998</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="8"/>
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="9"/>
-        <v>1.6325000000000001</v>
+        <v>1.964</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9">
         <v>0.1875</v>
       </c>
       <c r="L34" s="9">
-        <v>2.8</v>
+        <v>0.77</v>
       </c>
       <c r="M34" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.7765</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -5159,40 +5266,40 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E35" s="8">
         <f t="shared" si="5"/>
-        <v>2.3887499999999999</v>
+        <v>2.5075000000000003</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" si="6"/>
-        <v>2.4512499999999999</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="7"/>
-        <v>0.76875000000000004</v>
+        <v>0.88749999999999996</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="8"/>
-        <v>0.83125000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="9"/>
-        <v>1.2650000000000001</v>
+        <v>1.2775000000000001</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9">
-        <v>0.5</v>
+        <v>-0.51249999999999996</v>
       </c>
       <c r="L35" s="9">
-        <v>0.26874999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M35" s="9">
-        <v>0.76500000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -5203,40 +5310,40 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36" s="8">
         <f t="shared" si="5"/>
-        <v>2.89</v>
+        <v>2.9075000000000002</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" si="6"/>
-        <v>2.9525000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="7"/>
-        <v>1.27</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="8"/>
-        <v>1.3325</v>
+        <v>1.35</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="9"/>
-        <v>2.2765</v>
+        <v>1.6325000000000001</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L36" s="9">
-        <v>0.77</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M36" s="9">
-        <v>1.7765</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -5247,37 +5354,37 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E37" s="8">
         <f t="shared" si="5"/>
-        <v>3.22</v>
+        <v>4.6074999999999999</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" si="6"/>
-        <v>3.2825000000000002</v>
+        <v>4.67</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="7"/>
-        <v>1.6</v>
+        <v>2.9874999999999998</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="8"/>
-        <v>1.6625000000000001</v>
+        <v>3.05</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="9"/>
-        <v>1.9450000000000001</v>
+        <v>1.6325000000000001</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L37" s="9">
-        <v>1.1000000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="M37" s="9">
         <v>1.4450000000000001</v>
@@ -5291,172 +5398,160 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" si="5"/>
-        <v>4.92</v>
+        <v>2.3887499999999999</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="6"/>
-        <v>4.9824999999999999</v>
+        <v>2.4512499999999999</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="7"/>
-        <v>3.3</v>
+        <v>0.76875000000000004</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="8"/>
-        <v>3.3624999999999998</v>
+        <v>0.83125000000000004</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="9"/>
-        <v>1.9450000000000001</v>
+        <v>1.2650000000000001</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9">
         <v>0.5</v>
       </c>
       <c r="L38" s="9">
-        <v>2.8</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M38" s="9">
-        <v>1.4450000000000001</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>36</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E39" s="8">
         <f t="shared" si="5"/>
-        <v>2.2637499999999999</v>
+        <v>2.89</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="6"/>
-        <v>2.3262499999999999</v>
+        <v>2.9525000000000001</v>
       </c>
       <c r="G39" s="8">
         <f t="shared" si="7"/>
-        <v>0.64375000000000004</v>
+        <v>1.27</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" si="8"/>
-        <v>0.70625000000000004</v>
+        <v>1.3325</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="9"/>
-        <v>1.1400000000000001</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>2.2765</v>
+      </c>
+      <c r="J39" s="9"/>
       <c r="K39" s="9">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="L39" s="9">
-        <v>0.26874999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="M39" s="9">
-        <v>0.76500000000000001</v>
+        <v>1.7765</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>37</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E40" s="8">
         <f t="shared" si="5"/>
-        <v>2.7650000000000001</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="6"/>
-        <v>2.8275000000000001</v>
+        <v>2.8825000000000003</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" si="7"/>
-        <v>1.145</v>
+        <v>1.2</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" si="8"/>
-        <v>1.2075</v>
+        <v>1.2625</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" si="9"/>
-        <v>2.1515</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1.59</v>
+      </c>
+      <c r="J40" s="9"/>
       <c r="K40" s="9">
-        <v>0.1875</v>
+        <v>-0.2</v>
       </c>
       <c r="L40" s="9">
-        <v>0.77</v>
+        <v>1.4</v>
       </c>
       <c r="M40" s="9">
-        <v>1.7765</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>38</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E41" s="8">
         <f t="shared" si="5"/>
-        <v>3.0950000000000002</v>
+        <v>3.22</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="6"/>
-        <v>3.1575000000000002</v>
+        <v>3.2825000000000002</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="7"/>
-        <v>1.4750000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H41" s="8">
         <f t="shared" si="8"/>
-        <v>1.5375000000000001</v>
+        <v>1.6625000000000001</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" si="9"/>
-        <v>1.82</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="J41" s="9"/>
       <c r="K41" s="9">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="L41" s="9">
         <v>1.1000000000000001</v>
@@ -5469,40 +5564,36 @@
       <c r="A42" s="12">
         <v>39</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E42" s="8">
         <f t="shared" si="5"/>
-        <v>4.7949999999999999</v>
+        <v>4.92</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" si="6"/>
-        <v>4.8574999999999999</v>
+        <v>4.9824999999999999</v>
       </c>
       <c r="G42" s="8">
         <f t="shared" si="7"/>
-        <v>3.1749999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="8"/>
-        <v>3.2374999999999998</v>
+        <v>3.3624999999999998</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="9"/>
-        <v>1.82</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="J42" s="9"/>
       <c r="K42" s="9">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="L42" s="9">
         <v>2.8</v>
@@ -5519,36 +5610,36 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E43" s="8">
         <f t="shared" si="5"/>
-        <v>2.5762499999999999</v>
+        <v>2.2637499999999999</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" si="6"/>
-        <v>2.6387499999999999</v>
+        <v>2.3262499999999999</v>
       </c>
       <c r="G43" s="8">
         <f t="shared" si="7"/>
-        <v>0.95625000000000004</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="8"/>
-        <v>1.01875</v>
+        <v>0.70625000000000004</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="9"/>
-        <v>1.4525000000000001</v>
+        <v>1.1400000000000001</v>
       </c>
       <c r="J43" s="9">
         <v>0.1875</v>
       </c>
       <c r="K43" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L43" s="9">
         <v>0.26874999999999999</v>
@@ -5565,36 +5656,36 @@
         <v>7</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E44" s="8">
         <f t="shared" si="5"/>
-        <v>3.0775000000000001</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" si="6"/>
-        <v>3.14</v>
+        <v>2.8275000000000001</v>
       </c>
       <c r="G44" s="8">
         <f t="shared" si="7"/>
-        <v>1.4575</v>
+        <v>1.145</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" si="8"/>
-        <v>1.52</v>
+        <v>1.2075</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="9"/>
-        <v>2.464</v>
+        <v>2.1515</v>
       </c>
       <c r="J44" s="9">
         <v>0.1875</v>
       </c>
       <c r="K44" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L44" s="9">
         <v>0.77</v>
@@ -5611,42 +5702,42 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E45" s="8">
         <f t="shared" si="5"/>
-        <v>3.4075000000000002</v>
+        <v>2.6950000000000003</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" si="6"/>
-        <v>3.47</v>
+        <v>2.7575000000000003</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="7"/>
-        <v>1.7875000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" si="8"/>
-        <v>1.85</v>
+        <v>1.1375</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="9"/>
-        <v>2.1325000000000003</v>
+        <v>1.4650000000000001</v>
       </c>
       <c r="J45" s="9">
         <v>0.1875</v>
       </c>
       <c r="K45" s="9">
-        <v>0.5</v>
+        <v>-0.51249999999999996</v>
       </c>
       <c r="L45" s="9">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="M45" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -5657,41 +5748,293 @@
         <v>7</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E46" s="8">
         <f t="shared" si="5"/>
-        <v>5.1074999999999999</v>
+        <v>3.0950000000000002</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" si="6"/>
-        <v>5.17</v>
+        <v>3.1575000000000002</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="7"/>
-        <v>3.4874999999999998</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="8"/>
-        <v>3.55</v>
+        <v>1.5375000000000001</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" si="9"/>
-        <v>2.1325000000000003</v>
+        <v>1.82</v>
       </c>
       <c r="J46" s="9">
         <v>0.1875</v>
       </c>
       <c r="K46" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="L46" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M46" s="9">
+        <v>1.4450000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>44</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" si="5"/>
+        <v>4.7949999999999999</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="6"/>
+        <v>4.8574999999999999</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="7"/>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="H47" s="8">
+        <f t="shared" si="8"/>
+        <v>3.2374999999999998</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="L47" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="M47" s="9">
+        <v>1.4450000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>45</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" si="5"/>
+        <v>2.5762499999999999</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="6"/>
+        <v>2.6387499999999999</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="7"/>
+        <v>0.95625000000000004</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="8"/>
+        <v>1.01875</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K48" s="9">
         <v>0.5</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L48" s="9">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="M48" s="9">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>46</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" si="5"/>
+        <v>3.0775000000000001</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="6"/>
+        <v>3.14</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="7"/>
+        <v>1.4575</v>
+      </c>
+      <c r="H49" s="8">
+        <f t="shared" si="8"/>
+        <v>1.52</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="M49" s="9">
+        <v>1.7765</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>47</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" si="5"/>
+        <v>3.0075000000000003</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="6"/>
+        <v>3.0700000000000003</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" si="7"/>
+        <v>1.3875</v>
+      </c>
+      <c r="H50" s="8">
+        <f t="shared" si="8"/>
+        <v>1.45</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K50" s="9">
+        <v>-0.2</v>
+      </c>
+      <c r="L50" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="M50" s="9">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>48</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="5"/>
+        <v>3.4075000000000002</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="6"/>
+        <v>3.47</v>
+      </c>
+      <c r="G51" s="8">
+        <f t="shared" si="7"/>
+        <v>1.7875000000000001</v>
+      </c>
+      <c r="H51" s="8">
+        <f t="shared" si="8"/>
+        <v>1.85</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M51" s="9">
+        <v>1.4450000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>49</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" si="5"/>
+        <v>5.1074999999999999</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="6"/>
+        <v>5.17</v>
+      </c>
+      <c r="G52" s="8">
+        <f t="shared" si="7"/>
+        <v>3.4874999999999998</v>
+      </c>
+      <c r="H52" s="8">
+        <f t="shared" si="8"/>
+        <v>3.55</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L52" s="9">
         <v>2.8</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M52" s="9">
         <v>1.4450000000000001</v>
       </c>
     </row>
@@ -5702,15 +6045,15 @@
     <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E3:H46">
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
-      <formula>VALUE(E3) &gt; 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="E3:H52">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>VALUE(E3) &lt; 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>AND(VALUE(E3) &gt;= 2, VALUE(E3) &lt; 3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+      <formula>VALUE(E3) &gt; 3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5744,20 +6087,20 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="11"/>
       <c r="J1" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
@@ -5767,7 +6110,7 @@
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -5776,22 +6119,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -5813,26 +6156,26 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3" s="8" t="str">
-        <f t="shared" ref="E3:E8" si="0">INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</f>
+        <f t="shared" ref="E3" si="0">INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</f>
         <v>1m 9.92px</v>
       </c>
       <c r="F3" s="8" t="str">
-        <f t="shared" ref="F3:F8" si="1">INT(SUM(J3:L3)+0.0625+1.62)&amp;"m "&amp;((SUM(J3:L3)+0.0625+1.62)-INT(SUM(J3:L3)+0.0625+1.62))*16&amp;"px"</f>
+        <f t="shared" ref="F3" si="1">INT(SUM(J3:L3)+0.0625+1.62)&amp;"m "&amp;((SUM(J3:L3)+0.0625+1.62)-INT(SUM(J3:L3)+0.0625+1.62))*16&amp;"px"</f>
         <v>1m 10.92px</v>
       </c>
       <c r="G3" s="12" t="str">
-        <f t="shared" ref="G3:G8" si="2">INT(SUM(J3:L3))&amp;"m "&amp;((SUM(J3:L3))-INT(SUM(J3:L3)))*16&amp;"px"</f>
+        <f t="shared" ref="G3" si="2">INT(SUM(J3:L3))&amp;"m "&amp;((SUM(J3:L3))-INT(SUM(J3:L3)))*16&amp;"px"</f>
         <v>0m 0px</v>
       </c>
       <c r="H3" s="12" t="str">
-        <f t="shared" ref="H3:H8" si="3">INT(SUM(J3:L3)+0.0625)&amp;"m "&amp;((SUM(J3:L3)+0.0625)-INT(SUM(J3:L3)+0.0625))*16&amp;"px"</f>
+        <f t="shared" ref="H3" si="3">INT(SUM(J3:L3)+0.0625)&amp;"m "&amp;((SUM(J3:L3)+0.0625)-INT(SUM(J3:L3)+0.0625))*16&amp;"px"</f>
         <v>0m 1px</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I8" si="4">INT(SUM(J3:K3)+M3)&amp;"m "&amp;((SUM(J3:K3)+M3)-INT(SUM(J3:K3)+M3))*16&amp;"px"</f>
+        <f t="shared" ref="I3" si="4">INT(SUM(J3:K3)+M3)&amp;"m "&amp;((SUM(J3:K3)+M3)-INT(SUM(J3:K3)+M3))*16&amp;"px"</f>
         <v>1m 9.92px</v>
       </c>
       <c r="J3" s="9"/>
@@ -5853,7 +6196,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" ref="E4:E44" si="5">INT(SUM(J4:L4)+1.62)&amp;"m "&amp;((SUM(J4:L4)+1.62)-INT(SUM(J4:L4)+1.62))*16&amp;"px"</f>
@@ -5895,7 +6238,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="5"/>
@@ -5934,10 +6277,10 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="5"/>
@@ -5981,7 +6324,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6024,10 +6367,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6069,7 +6412,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6109,7 +6452,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6149,7 +6492,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6189,7 +6532,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6229,7 +6572,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6269,7 +6612,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6309,7 +6652,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E15" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6349,7 +6692,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E16" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6389,7 +6732,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E17" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6429,7 +6772,7 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E18" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6471,7 +6814,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E19" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6515,7 +6858,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E20" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6559,7 +6902,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6603,7 +6946,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6647,7 +6990,7 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E23" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6691,7 +7034,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E24" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6735,7 +7078,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E25" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6779,7 +7122,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E26" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6823,7 +7166,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E27" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6867,7 +7210,7 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E28" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6911,7 +7254,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E29" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6955,7 +7298,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E30" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6999,7 +7342,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E31" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7043,7 +7386,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E32" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7084,10 +7427,10 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E33" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7128,10 +7471,10 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E34" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7172,10 +7515,10 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E35" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7216,10 +7559,10 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E36" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7265,7 +7608,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E37" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7313,7 +7656,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E38" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7361,7 +7704,7 @@
         <v>11</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E39" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7409,7 +7752,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E40" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7454,10 +7797,10 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E41" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7502,10 +7845,10 @@
         <v>7</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E42" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7550,10 +7893,10 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E43" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7598,10 +7941,10 @@
         <v>7</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E44" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7646,13 +7989,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E3:I44">
-    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>AND(VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 2, VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7686,20 +8029,20 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="11"/>
       <c r="J1" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
@@ -7709,7 +8052,7 @@
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -7718,22 +8061,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -7755,26 +8098,26 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" ref="E3:E8" si="0">SUM(J3:L3)+1.62</f>
+        <f t="shared" ref="E3" si="0">SUM(J3:L3)+1.62</f>
         <v>1.62</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F8" si="1">SUM(J3:L3)+0.0625+1.62</f>
+        <f t="shared" ref="F3" si="1">SUM(J3:L3)+0.0625+1.62</f>
         <v>1.6825000000000001</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ref="G3:G8" si="2">SUM(J3:L3)</f>
+        <f t="shared" ref="G3" si="2">SUM(J3:L3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="12">
-        <f t="shared" ref="H3:H8" si="3">SUM(J3:L3)+0.0625</f>
+        <f t="shared" ref="H3" si="3">SUM(J3:L3)+0.0625</f>
         <v>6.25E-2</v>
       </c>
       <c r="I3" s="8">
-        <f t="shared" ref="I3:I8" si="4">SUM(J3:K3)+M3</f>
+        <f t="shared" ref="I3" si="4">SUM(J3:K3)+M3</f>
         <v>1.62</v>
       </c>
       <c r="J3" s="9"/>
@@ -7795,7 +8138,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E44" si="5">SUM(J4:L4)+1.62</f>
@@ -7837,7 +8180,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="5"/>
@@ -7876,10 +8219,10 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="5"/>
@@ -7923,7 +8266,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="5"/>
@@ -7966,10 +8309,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="5"/>
@@ -8011,7 +8354,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="5"/>
@@ -8051,7 +8394,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="5"/>
@@ -8091,7 +8434,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="5"/>
@@ -8131,7 +8474,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="5"/>
@@ -8171,7 +8514,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="5"/>
@@ -8211,7 +8554,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="5"/>
@@ -8251,7 +8594,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="5"/>
@@ -8291,7 +8634,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="5"/>
@@ -8331,7 +8674,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="5"/>
@@ -8371,7 +8714,7 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="5"/>
@@ -8413,7 +8756,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="5"/>
@@ -8457,7 +8800,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="5"/>
@@ -8501,7 +8844,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="5"/>
@@ -8545,7 +8888,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="5"/>
@@ -8589,7 +8932,7 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="5"/>
@@ -8633,7 +8976,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="5"/>
@@ -8677,7 +9020,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="5"/>
@@ -8721,7 +9064,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E26" s="8">
         <f t="shared" si="5"/>
@@ -8765,7 +9108,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="5"/>
@@ -8809,7 +9152,7 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="5"/>
@@ -8853,7 +9196,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E29" s="8">
         <f t="shared" si="5"/>
@@ -8897,7 +9240,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E30" s="8">
         <f t="shared" si="5"/>
@@ -8941,7 +9284,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" si="5"/>
@@ -8985,7 +9328,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" si="5"/>
@@ -9026,10 +9369,10 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="5"/>
@@ -9070,10 +9413,10 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E34" s="8">
         <f t="shared" si="5"/>
@@ -9114,10 +9457,10 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E35" s="8">
         <f t="shared" si="5"/>
@@ -9158,10 +9501,10 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E36" s="8">
         <f t="shared" si="5"/>
@@ -9207,7 +9550,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E37" s="8">
         <f t="shared" si="5"/>
@@ -9253,7 +9596,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" si="5"/>
@@ -9299,7 +9642,7 @@
         <v>11</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E39" s="8">
         <f t="shared" si="5"/>
@@ -9345,7 +9688,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E40" s="8">
         <f t="shared" si="5"/>
@@ -9388,10 +9731,10 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E41" s="8">
         <f t="shared" si="5"/>
@@ -9434,10 +9777,10 @@
         <v>7</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E42" s="8">
         <f t="shared" si="5"/>
@@ -9480,10 +9823,10 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E43" s="8">
         <f t="shared" si="5"/>
@@ -9526,10 +9869,10 @@
         <v>7</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E44" s="8">
         <f t="shared" si="5"/>
@@ -9572,14 +9915,14 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E3:I44">
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>VALUE(E3) &lt; 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(VALUE(E3) &gt;= 2, VALUE(E3) &lt; 3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>VALUE(E3) &gt; 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>VALUE(E3) &lt; 2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9591,7 +9934,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9024B830-7371-4AE1-9ABB-4F9074C93617}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9607,24 +9950,24 @@
   <sheetData>
     <row r="1" spans="1:4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="8">
         <v>1.62</v>
@@ -9636,7 +9979,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>7</v>
@@ -9660,13 +10003,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8">
         <v>-0.41249999999999998</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D5:D18" si="1">C5*16</f>
+        <f t="shared" ref="D5:D19" si="1">C5*16</f>
         <v>-6.6</v>
       </c>
     </row>
@@ -9675,7 +10018,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="8">
         <v>-0.41249999999999998</v>
@@ -9687,10 +10030,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" s="8">
         <v>-0.1</v>
@@ -9702,10 +10045,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="8">
         <v>0.26874999999999999</v>
@@ -9717,10 +10060,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8">
         <v>0.51249999999999996</v>
@@ -9732,10 +10075,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8">
         <v>0.61250000000000004</v>
@@ -9747,10 +10090,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8">
         <v>0.71875</v>
@@ -9762,10 +10105,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8">
         <v>0.77</v>
@@ -9777,10 +10120,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" s="8">
         <v>0.84375</v>
@@ -9792,10 +10135,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8">
         <v>1.1000000000000001</v>
@@ -9807,10 +10150,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="8">
         <v>2.8</v>
@@ -9822,10 +10165,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" s="8">
         <v>0.17</v>
@@ -9837,10 +10180,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="8">
         <v>1.4</v>
@@ -9852,60 +10195,69 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" ref="D18" si="2">C18*16</f>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="8">
         <v>3.4</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <f t="shared" si="1"/>
         <v>54.4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-0.51249999999999996</v>
+      </c>
+      <c r="D21" s="8">
+        <f>C21*16</f>
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8">
         <f>0.25-1/16</f>
         <v>0.1875</v>
       </c>
-      <c r="D20" s="8">
-        <f>C20*16</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.5</v>
-      </c>
       <c r="D22" s="8">
         <f>C22*16</f>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -9916,69 +10268,120 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" ref="C24:C25" si="2">0.25-1/16</f>
+        <v>-0.2</v>
+      </c>
+      <c r="D24" s="8">
+        <f>C24*16</f>
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="8">
+        <f>C25*16</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="8">
+        <v>-0.45</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" ref="D27:D29" si="3">C27*16</f>
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" ref="C28:C29" si="4">0.25-1/16</f>
         <v>0.1875</v>
       </c>
-      <c r="D24" s="8">
-        <f t="shared" ref="D24:D25" si="3">C24*16</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="8">
-        <f t="shared" si="2"/>
-        <v>0.1875</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="D28" s="8">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8">
+    <row r="29" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="4"/>
+        <v>0.1875</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8">
         <v>0.6875</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D30" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="8">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="8">
         <f>0.25-1/16</f>
         <v>0.1875</v>
       </c>
-      <c r="D28" s="8">
-        <f>C28*16</f>
+      <c r="D32" s="8">
+        <f>C32*16</f>
         <v>3</v>
       </c>
     </row>
@@ -10004,24 +10407,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="8">
         <v>1.62</v>
@@ -10033,7 +10436,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>7</v>
@@ -10057,7 +10460,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8">
         <v>-0.35</v>
@@ -10072,7 +10475,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="8">
         <v>-0.35</v>
@@ -10084,10 +10487,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" s="8">
         <v>-0.1</v>
@@ -10099,10 +10502,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="8">
         <v>0.32500000000000001</v>
@@ -10114,10 +10517,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8">
         <v>0.52500000000000002</v>
@@ -10129,10 +10532,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8">
         <v>0.6</v>
@@ -10144,10 +10547,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8">
         <v>0.66249999999999998</v>
@@ -10159,10 +10562,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8">
         <v>0.77200000000000002</v>
@@ -10174,10 +10577,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" s="8">
         <v>0.85</v>
@@ -10189,10 +10592,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8">
         <v>1.1599999999999999</v>
@@ -10204,10 +10607,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="8">
         <v>2.81</v>
@@ -10219,10 +10622,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" s="8">
         <v>0.19500000000000001</v>
@@ -10234,10 +10637,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="8">
         <v>1.425</v>
@@ -10258,7 +10661,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8">
         <v>0.04</v>
@@ -10276,10 +10679,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C21" s="8">
         <v>0.39</v>
@@ -10298,7 +10701,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" s="8">
         <v>0.14000000000000001</v>
@@ -10313,7 +10716,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C24" s="8">
         <v>0.14000000000000001</v>
@@ -10332,7 +10735,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" s="8">
         <v>0.14000000000000001</v>

--- a/实体 entity/Entity Ride Heights.xlsx
+++ b/实体 entity/Entity Ride Heights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Minecraft\tree-hole\实体 entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59900826-6E41-444E-8A88-A7AE05A14050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742C1B0F-8214-4119-8315-B1FD789ABB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information Guide" sheetId="2" r:id="rId1"/>
@@ -37,12 +37,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="66">
   <si>
     <t>The last 5 columns are for calculations, just adjusting the height based on which entities are used</t>
   </si>
@@ -93,12 +96,6 @@
   </si>
   <si>
     <t>Double Strider</t>
-  </si>
-  <si>
-    <t>Camel sitting</t>
-  </si>
-  <si>
-    <t>Camel standing</t>
   </si>
   <si>
     <t>Happy Ghast</t>
@@ -255,11 +252,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Horse, Donkey, Mule, Skeleton Horse, 
-Zombified Horse, Camel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(On Rail)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -337,18 +329,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Camel sitting</t>
+    <t>Raft</t>
+  </si>
+  <si>
+    <t>Skeleton Horse, Zombified Horse</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Raft</t>
+    <t>Nautilus, Zombified Nautilus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nautilus, Zombified Nautilus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camel (sitting), Camel Husk (sitting)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camel (standing), Camel Husk (standing)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camel (sitting)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camel (standing)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horse, Donkey, Mule, Skeleton Horse, 
+Zombified Horse, Camel, Camel Husk, Nautilus, Zombified Nautilus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +477,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -478,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -537,15 +565,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -554,7 +585,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{8D6771BB-58B0-47F2-9249-E3DC5351C918}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="44">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -620,6 +651,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -650,6 +711,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -670,11 +751,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -933,24 +1044,24 @@
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="1.20.1- Ride Heights (Blocks)-style" pivot="0" count="3" xr9:uid="{6B6993D4-97D8-4374-905A-B78CB5DF4077}">
-      <tableStyleElement type="headerRow" dxfId="35"/>
-      <tableStyleElement type="firstRowStripe" dxfId="34"/>
-      <tableStyleElement type="secondRowStripe" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="secondRowStripe" dxfId="41"/>
     </tableStyle>
     <tableStyle name="1.20.1- Ride Heights (Pixels)-style" pivot="0" count="3" xr9:uid="{23CA1FE2-706B-4544-96DF-7B01569E5C90}">
-      <tableStyleElement type="headerRow" dxfId="32"/>
-      <tableStyleElement type="firstRowStripe" dxfId="31"/>
-      <tableStyleElement type="secondRowStripe" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
     <tableStyle name="1.20.4+ Ride Heights (Blocks)-style" pivot="0" count="3" xr9:uid="{3145A76D-594E-4BA5-A0DA-E221FF877FE9}">
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="firstRowStripe" dxfId="28"/>
-      <tableStyleElement type="secondRowStripe" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="firstRowStripe" dxfId="36"/>
+      <tableStyleElement type="secondRowStripe" dxfId="35"/>
     </tableStyle>
     <tableStyle name="1.20.4+ Ride Heights (Pixels)-style" pivot="0" count="3" xr9:uid="{9E18C9FD-A393-428A-94D3-53D7CFEC0D89}">
-      <tableStyleElement type="headerRow" dxfId="26"/>
-      <tableStyleElement type="firstRowStripe" dxfId="25"/>
-      <tableStyleElement type="secondRowStripe" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1014,16 +1125,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0C60202F-B5CB-4843-9E8C-D6A64E6F9F8C}" name="Table_1" displayName="Table_1" ref="A2:M52" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0C60202F-B5CB-4843-9E8C-D6A64E6F9F8C}" name="Table_1" displayName="Table_1" ref="A2:M54" headerRowCount="0">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{43A4965D-964F-4F6F-8B2D-48106909BDF6}" name="Column1" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{43A4965D-964F-4F6F-8B2D-48106909BDF6}" name="Column1" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{74165040-79F6-4CB4-B810-6D91D8D6C18B}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{37488169-D7B4-42DC-8533-921E9E2BC618}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{9E44E31B-E7CB-40F2-8C41-11DA02F57A1E}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{8B5722CB-D228-4DE3-A680-B942C5506B11}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{8956B422-A019-4516-80EE-B7AF4C53D025}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{2C49505E-2274-4C46-8223-20C75AC2A02B}" name="Column7" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{0D1694B0-4F11-451D-8C84-89ACF63B817B}" name="Column8" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{2C49505E-2274-4C46-8223-20C75AC2A02B}" name="Column7" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{0D1694B0-4F11-451D-8C84-89ACF63B817B}" name="Column8" dataDxfId="29"/>
     <tableColumn id="9" xr3:uid="{69E0CDDB-52BC-4B21-B8B2-16FE3FAD2A93}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{F8093E3D-0A92-4DEB-9441-B3771647CE13}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{910EFB3D-463E-4CDC-B50A-BFB97D760EEE}" name="Column11"/>
@@ -1035,16 +1146,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A8A014BC-A953-42EC-9BFB-B461200B26B0}" name="Table_2" displayName="Table_2" ref="A2:M52" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A8A014BC-A953-42EC-9BFB-B461200B26B0}" name="Table_2" displayName="Table_2" ref="A2:M54" headerRowCount="0">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1CA0DA67-F94A-43E1-BCA3-D7F632B74587}" name="Column1" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{1CA0DA67-F94A-43E1-BCA3-D7F632B74587}" name="Column1" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{763C036C-C024-4E4C-9513-AD2008749CA8}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{C647D1CD-C22D-403D-BF9C-CC428F2B8256}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{8D3380B5-0057-433A-B3B3-F53E930425BE}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{8282F153-6EB7-447B-84CA-A12A18CA77B3}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{482524FE-2C41-4706-A7A3-8F55FD6B11AD}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{EBF2FA6C-4580-4D94-8582-7AC44644BB60}" name="Column7" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{78EE47DC-6096-448A-940E-9A8F3779C718}" name="Column8" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{EBF2FA6C-4580-4D94-8582-7AC44644BB60}" name="Column7" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{78EE47DC-6096-448A-940E-9A8F3779C718}" name="Column8" dataDxfId="26"/>
     <tableColumn id="9" xr3:uid="{FBD1976E-2770-4F4C-BD9D-DABD7C583434}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{C8B7FDA1-B688-453E-8A09-B143AF0E213F}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{7A8EF823-E3D6-4C22-8C08-8028D0758DFF}" name="Column11"/>
@@ -1058,14 +1169,14 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{318357A1-B815-4327-BAC4-93523134B59F}" name="Table_3" displayName="Table_3" ref="A2:M44" headerRowCount="0">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{65E816FD-9BCD-4052-86A1-2B8969136BAD}" name="Column1" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{65E816FD-9BCD-4052-86A1-2B8969136BAD}" name="Column1" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{CBFCAE0C-510C-465A-962B-E6A9DDD15473}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{ECF82FBD-A549-4FB0-9013-36795A2A2063}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{4E9C2AC3-1B7F-4F71-B129-A0478752A3E3}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{3B3DFFDC-2C89-443C-9179-6023BE3077A7}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{490089BE-DE5E-451E-8617-EB9097686394}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{7CD2796E-6933-44B4-8998-DE7EADB06A1B}" name="Column7" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{F8678D43-A843-4793-9A37-662814D1713E}" name="Column8" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{7CD2796E-6933-44B4-8998-DE7EADB06A1B}" name="Column7" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{F8678D43-A843-4793-9A37-662814D1713E}" name="Column8" dataDxfId="23"/>
     <tableColumn id="9" xr3:uid="{F260767C-2B45-477E-9127-8140279F5A2E}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{CED8B961-0A9C-496A-9ECB-B6737E596E3C}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{30CDF02E-5FC9-431F-93EB-1CF60222DCE6}" name="Column11"/>
@@ -1079,14 +1190,14 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BC3890EB-5A24-4C82-BEB4-56DD4CA1D911}" name="Table_4" displayName="Table_4" ref="A2:M44" headerRowCount="0">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{499B55EC-BE26-4DBE-9E14-4AEA804928B3}" name="Column1" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{499B55EC-BE26-4DBE-9E14-4AEA804928B3}" name="Column1" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{8D954217-2113-494A-B225-4743F81EF2BE}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{CB56D995-8059-489A-A0EA-8C09C6E69CB6}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{68A5F15D-EFA6-4543-8D98-9FDCFCE1C266}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{B30F920E-8773-48CF-B9BD-7A83A845DB34}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{1485DC6D-9CBF-40A3-AD9E-13EE3D77D9D8}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{D266E206-2814-494C-A8A6-59682599953F}" name="Column7" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{1BA576A9-2D13-4267-A988-7E033EBCA1FC}" name="Column8" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{D266E206-2814-494C-A8A6-59682599953F}" name="Column7" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{1BA576A9-2D13-4267-A988-7E033EBCA1FC}" name="Column8" dataDxfId="20"/>
     <tableColumn id="9" xr3:uid="{7ABF83CB-9163-4F50-AC4C-02355A0DF110}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{6BD73AD2-4529-441C-8CA1-8D60F36C5434}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{A9352EF2-1D5B-409B-A8D5-328F7CB288E9}" name="Column11"/>
@@ -1365,7 +1476,7 @@
   </sheetPr>
   <dimension ref="A2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1376,117 +1487,117 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="C5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="C6" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="C8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1516,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26207E-1334-4633-A049-242B47862D3D}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1537,31 +1648,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>20</v>
+      <c r="A1" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="J1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -1570,22 +1681,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="I2" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -1607,7 +1718,7 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" ref="E3" si="0">INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</f>
@@ -1647,26 +1758,26 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8" t="str">
-        <f t="shared" ref="E4:E52" si="5">INT(SUM(J4:L4)+1.62)&amp;"m "&amp;((SUM(J4:L4)+1.62)-INT(SUM(J4:L4)+1.62))*16&amp;"px"</f>
+        <f t="shared" ref="E4:E54" si="5">INT(SUM(J4:L4)+1.62)&amp;"m "&amp;((SUM(J4:L4)+1.62)-INT(SUM(J4:L4)+1.62))*16&amp;"px"</f>
         <v>1m 3.32px</v>
       </c>
       <c r="F4" s="8" t="str">
-        <f t="shared" ref="F4:F52" si="6">INT(SUM(J4:L4)+0.0625+1.62)&amp;"m "&amp;((SUM(J4:L4)+0.0625+1.62)-INT(SUM(J4:L4)+0.0625+1.62))*16&amp;"px"</f>
+        <f t="shared" ref="F4:F54" si="6">INT(SUM(J4:L4)+0.0625+1.62)&amp;"m "&amp;((SUM(J4:L4)+0.0625+1.62)-INT(SUM(J4:L4)+0.0625+1.62))*16&amp;"px"</f>
         <v>1m 4.32px</v>
       </c>
       <c r="G4" s="12" t="str">
-        <f t="shared" ref="G4:G52" si="7">INT(SUM(J4:L4))&amp;"m "&amp;((SUM(J4:L4))-INT(SUM(J4:L4)))*16&amp;"px"</f>
+        <f t="shared" ref="G4:G54" si="7">INT(SUM(J4:L4))&amp;"m "&amp;((SUM(J4:L4))-INT(SUM(J4:L4)))*16&amp;"px"</f>
         <v>-1m 9.4px</v>
       </c>
       <c r="H4" s="12" t="str">
-        <f t="shared" ref="H4:H52" si="8">INT(SUM(J4:L4)+0.0625)&amp;"m "&amp;((SUM(J4:L4)+0.0625)-INT(SUM(J4:L4)+0.0625))*16&amp;"px"</f>
+        <f t="shared" ref="H4:H54" si="8">INT(SUM(J4:L4)+0.0625)&amp;"m "&amp;((SUM(J4:L4)+0.0625)-INT(SUM(J4:L4)+0.0625))*16&amp;"px"</f>
         <v>-1m 10.4px</v>
       </c>
       <c r="I4" s="8" t="str">
-        <f t="shared" ref="I4:I52" si="9">INT(SUM(J4:K4)+M4)&amp;"m "&amp;((SUM(J4:K4)+M4)-INT(SUM(J4:K4)+M4))*16&amp;"px"</f>
+        <f t="shared" ref="I4:I54" si="9">INT(SUM(J4:K4)+M4)&amp;"m "&amp;((SUM(J4:K4)+M4)-INT(SUM(J4:K4)+M4))*16&amp;"px"</f>
         <v>1m 3.32px</v>
       </c>
       <c r="J4" s="9">
@@ -1689,7 +1800,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1728,10 +1839,10 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1775,7 +1886,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1818,10 +1929,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1863,7 +1974,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1903,7 +2014,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1940,38 +2051,36 @@
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>2m 3.72px</v>
-      </c>
-      <c r="F11" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>2m 4.72px</v>
-      </c>
-      <c r="G11" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>0m 9.8px</v>
-      </c>
-      <c r="H11" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>0m 10.8px</v>
-      </c>
-      <c r="I11" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>1m 8.32px</v>
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>INT(SUM(J11:L11)+1.62)&amp;"m "&amp;((SUM(J11:L11)+1.62)-INT(SUM(J11:L11)+1.62))*16&amp;"px"</f>
+        <v>2m 2.52px</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>INT(SUM(J11:L11)+0.0625+1.62)&amp;"m "&amp;((SUM(J11:L11)+0.0625+1.62)-INT(SUM(J11:L11)+0.0625+1.62))*16&amp;"px"</f>
+        <v>2m 3.52px</v>
+      </c>
+      <c r="G11" s="22" t="str">
+        <f>INT(SUM(J11:L11))&amp;"m "&amp;((SUM(J11:L11))-INT(SUM(J11:L11)))*16&amp;"px"</f>
+        <v>0m 8.6px</v>
+      </c>
+      <c r="H11" s="22" t="str">
+        <f>INT(SUM(J11:L11)+0.0625)&amp;"m "&amp;((SUM(J11:L11)+0.0625)-INT(SUM(J11:L11)+0.0625))*16&amp;"px"</f>
+        <v>0m 9.6px</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>INT(SUM(J11:K11)+M11)&amp;"m "&amp;((SUM(J11:K11)+M11)-INT(SUM(J11:K11)+M11))*16&amp;"px"</f>
+        <v>0m 4.4016px</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9">
-        <v>0.61250000000000004</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="M11" s="9">
-        <v>1.52</v>
+        <v>0.27510000000000001</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1983,23 +2092,23 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 5.42px</v>
+        <v>2m 3.72px</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 6.42px</v>
+        <v>2m 4.72px</v>
       </c>
       <c r="G12" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 11.5px</v>
+        <v>0m 9.8px</v>
       </c>
       <c r="H12" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 12.5px</v>
+        <v>0m 10.8px</v>
       </c>
       <c r="I12" s="8" t="str">
         <f t="shared" si="9"/>
@@ -2008,7 +2117,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9">
-        <v>0.71875</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="M12" s="9">
         <v>1.52</v>
@@ -2023,35 +2132,35 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 6.24px</v>
+        <v>2m 5.42px</v>
       </c>
       <c r="F13" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 7.24px</v>
+        <v>2m 6.42px</v>
       </c>
       <c r="G13" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 12.32px</v>
+        <v>0m 11.5px</v>
       </c>
       <c r="H13" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 13.32px</v>
+        <v>0m 12.5px</v>
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 12.424px</v>
+        <v>1m 8.32px</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9">
-        <v>0.77</v>
+        <v>0.71875</v>
       </c>
       <c r="M13" s="9">
-        <v>1.7765</v>
+        <v>1.52</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2063,35 +2172,35 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 7.42px</v>
+        <v>2m 6.24px</v>
       </c>
       <c r="F14" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 8.42px</v>
+        <v>2m 7.24px</v>
       </c>
       <c r="G14" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 13.5px</v>
+        <v>0m 12.32px</v>
       </c>
       <c r="H14" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 14.5px</v>
+        <v>0m 13.32px</v>
       </c>
       <c r="I14" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 8.32px</v>
+        <v>1m 12.424px</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9">
-        <v>0.84375</v>
+        <v>0.77</v>
       </c>
       <c r="M14" s="9">
-        <v>1.52</v>
+        <v>1.7765</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2103,35 +2212,35 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E15" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 11.52px</v>
+        <v>2m 7.42px</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 12.52px</v>
+        <v>2m 8.42px</v>
       </c>
       <c r="G15" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 1.6px</v>
+        <v>0m 13.5px</v>
       </c>
       <c r="H15" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 2.6px</v>
+        <v>0m 14.5px</v>
       </c>
       <c r="I15" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 7.12px</v>
+        <v>1m 8.32px</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.84375</v>
       </c>
       <c r="M15" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2143,23 +2252,23 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>4m 6.72px</v>
+        <v>2m 11.52px</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>4m 7.72px</v>
+        <v>2m 12.52px</v>
       </c>
       <c r="G16" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>2m 12.8px</v>
+        <v>1m 1.6px</v>
       </c>
       <c r="H16" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>2m 13.8px</v>
+        <v>1m 2.6px</v>
       </c>
       <c r="I16" s="8" t="str">
         <f t="shared" si="9"/>
@@ -2168,7 +2277,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9">
-        <v>2.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M16" s="9">
         <v>1.4450000000000001</v>
@@ -2183,35 +2292,35 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>1m 12.64px</v>
+        <v>4m 6.72px</v>
       </c>
       <c r="F17" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>1m 13.64px</v>
+        <v>4m 7.72px</v>
       </c>
       <c r="G17" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 2.72px</v>
+        <v>2m 12.8px</v>
       </c>
       <c r="H17" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 3.72px</v>
+        <v>2m 13.8px</v>
       </c>
       <c r="I17" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 0.719999999999999px</v>
+        <v>1m 7.12px</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9">
-        <v>0.17</v>
+        <v>2.8</v>
       </c>
       <c r="M17" s="9">
-        <v>1.0449999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2223,35 +2332,35 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E18" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>3m 0.32px</v>
+        <v>1m 12.64px</v>
       </c>
       <c r="F18" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>3m 1.32px</v>
+        <v>1m 13.64px</v>
       </c>
       <c r="G18" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 6.4px</v>
+        <v>0m 2.72px</v>
       </c>
       <c r="H18" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 7.4px</v>
+        <v>0m 3.72px</v>
       </c>
       <c r="I18" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 4.4px</v>
+        <v>1m 0.719999999999999px</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9">
-        <v>1.4</v>
+        <v>0.17</v>
       </c>
       <c r="M18" s="9">
-        <v>2.2749999999999999</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2263,7 +2372,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2283,7 +2392,7 @@
       </c>
       <c r="I19" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 12.64px</v>
+        <v>2m 4.4px</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -2291,7 +2400,7 @@
         <v>1.4</v>
       </c>
       <c r="M19" s="9">
-        <v>1.79</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2303,35 +2412,35 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E20" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>5m 0.319999999999993px</v>
+        <v>3m 0.32px</v>
       </c>
       <c r="F20" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>5m 1.31999999999999px</v>
+        <v>3m 1.32px</v>
       </c>
       <c r="G20" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>3m 6.4px</v>
+        <v>1m 6.4px</v>
       </c>
       <c r="H20" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>3m 7.4px</v>
+        <v>1m 7.4px</v>
       </c>
       <c r="I20" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 9.6px</v>
+        <v>1m 12.64px</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="M20" s="9">
-        <v>2.6</v>
+        <v>1.79</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2340,42 +2449,38 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E21" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 1.22px</v>
+        <v>5m 0.319999999999993px</v>
       </c>
       <c r="F21" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 2.22px</v>
+        <v>5m 1.31999999999999px</v>
       </c>
       <c r="G21" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 7.3px</v>
+        <v>3m 6.4px</v>
       </c>
       <c r="H21" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 8.3px</v>
+        <v>3m 7.4px</v>
       </c>
       <c r="I21" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>0m 15.24px</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>2m 9.6px</v>
+      </c>
+      <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9">
-        <v>0.26874999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="M21" s="9">
-        <v>0.76500000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2389,37 +2494,37 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E22" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 5.12px</v>
+        <v>2m 1.22px</v>
       </c>
       <c r="F22" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 6.12px</v>
+        <v>2m 2.22px</v>
       </c>
       <c r="G22" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 11.2px</v>
+        <v>0m 7.3px</v>
       </c>
       <c r="H22" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 12.2px</v>
+        <v>0m 8.3px</v>
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 9.8px</v>
+        <v>0m 15.24px</v>
       </c>
       <c r="J22" s="9">
         <v>0.1875</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9">
-        <v>0.51249999999999996</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M22" s="9">
-        <v>1.425</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2433,37 +2538,37 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E23" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 6.72px</v>
+        <v>2m 5.12px</v>
       </c>
       <c r="F23" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 7.72px</v>
+        <v>2m 6.12px</v>
       </c>
       <c r="G23" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 12.8px</v>
+        <v>0m 11.2px</v>
       </c>
       <c r="H23" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 13.8px</v>
+        <v>0m 12.2px</v>
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 11.32px</v>
+        <v>1m 9.8px</v>
       </c>
       <c r="J23" s="9">
         <v>0.1875</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9">
-        <v>0.61250000000000004</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="M23" s="9">
-        <v>1.52</v>
+        <v>1.425</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2475,39 +2580,38 @@
       <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>2m 8.42px</v>
-      </c>
-      <c r="F24" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>2m 9.42px</v>
-      </c>
-      <c r="G24" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>0m 14.5px</v>
-      </c>
-      <c r="H24" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>0m 15.5px</v>
-      </c>
-      <c r="I24" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>1m 11.32px</v>
+      <c r="D24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" ref="E24" si="10">INT(SUM(J24:L24)+1.62)&amp;"m "&amp;((SUM(J24:L24)+1.62)-INT(SUM(J24:L24)+1.62))*16&amp;"px"</f>
+        <v>2m 5.52px</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>2m 6.52px</v>
+      </c>
+      <c r="G24" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v>0m 11.6px</v>
+      </c>
+      <c r="H24" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>0m 12.6px</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0m 7.4016px</v>
       </c>
       <c r="J24" s="9">
         <v>0.1875</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9">
-        <v>0.71875</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="M24" s="9">
-        <v>1.52</v>
+        <v>0.27510000000000001</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2521,37 +2625,37 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 9.24px</v>
+        <v>2m 6.72px</v>
       </c>
       <c r="F25" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 10.24px</v>
+        <v>2m 7.72px</v>
       </c>
       <c r="G25" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 15.32px</v>
+        <v>0m 12.8px</v>
       </c>
       <c r="H25" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 0.32px</v>
+        <v>0m 13.8px</v>
       </c>
       <c r="I25" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 15.424px</v>
+        <v>1m 11.32px</v>
       </c>
       <c r="J25" s="9">
         <v>0.1875</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9">
-        <v>0.77</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="M25" s="9">
-        <v>1.7765</v>
+        <v>1.52</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -2565,23 +2669,23 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E26" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 10.42px</v>
+        <v>2m 8.42px</v>
       </c>
       <c r="F26" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 11.42px</v>
+        <v>2m 9.42px</v>
       </c>
       <c r="G26" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 0.5px</v>
+        <v>0m 14.5px</v>
       </c>
       <c r="H26" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 1.5px</v>
+        <v>0m 15.5px</v>
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" si="9"/>
@@ -2592,7 +2696,7 @@
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="M26" s="9">
         <v>1.52</v>
@@ -2609,37 +2713,37 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 14.52px</v>
+        <v>2m 9.24px</v>
       </c>
       <c r="F27" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 15.52px</v>
+        <v>2m 10.24px</v>
       </c>
       <c r="G27" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 4.6px</v>
+        <v>0m 15.32px</v>
       </c>
       <c r="H27" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 5.6px</v>
+        <v>1m 0.32px</v>
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 10.12px</v>
+        <v>1m 15.424px</v>
       </c>
       <c r="J27" s="9">
         <v>0.1875</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="M27" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.7765</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2653,37 +2757,37 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E28" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>4m 9.72px</v>
+        <v>2m 10.42px</v>
       </c>
       <c r="F28" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>4m 10.72px</v>
+        <v>2m 11.42px</v>
       </c>
       <c r="G28" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>2m 15.8px</v>
+        <v>1m 0.5px</v>
       </c>
       <c r="H28" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>3m 0.799999999999997px</v>
+        <v>1m 1.5px</v>
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 10.12px</v>
+        <v>1m 11.32px</v>
       </c>
       <c r="J28" s="9">
         <v>0.1875</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9">
-        <v>2.8</v>
+        <v>0.84375</v>
       </c>
       <c r="M28" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -2697,37 +2801,37 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>1m 15.64px</v>
+        <v>2m 14.52px</v>
       </c>
       <c r="F29" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 0.640000000000001px</v>
+        <v>2m 15.52px</v>
       </c>
       <c r="G29" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 5.72px</v>
+        <v>1m 4.6px</v>
       </c>
       <c r="H29" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 6.72px</v>
+        <v>1m 5.6px</v>
       </c>
       <c r="I29" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 3.72px</v>
+        <v>1m 10.12px</v>
       </c>
       <c r="J29" s="9">
         <v>0.1875</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9">
-        <v>0.17</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M29" s="9">
-        <v>1.0449999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2741,37 +2845,37 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>3m 3.32px</v>
+        <v>4m 9.72px</v>
       </c>
       <c r="F30" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>3m 4.32px</v>
+        <v>4m 10.72px</v>
       </c>
       <c r="G30" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 9.4px</v>
+        <v>2m 15.8px</v>
       </c>
       <c r="H30" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 10.4px</v>
+        <v>3m 0.799999999999997px</v>
       </c>
       <c r="I30" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 7.4px</v>
+        <v>1m 10.12px</v>
       </c>
       <c r="J30" s="9">
         <v>0.1875</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="M30" s="9">
-        <v>2.2749999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2785,37 +2889,37 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E31" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 9.12px</v>
+        <v>1m 15.64px</v>
       </c>
       <c r="F31" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 10.12px</v>
+        <v>2m 0.640000000000001px</v>
       </c>
       <c r="G31" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 15.2px</v>
+        <v>0m 5.72px</v>
       </c>
       <c r="H31" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 0.199999999999999px</v>
+        <v>0m 6.72px</v>
       </c>
       <c r="I31" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 5.44px</v>
+        <v>1m 3.72px</v>
       </c>
       <c r="J31" s="9">
-        <v>-0.45</v>
+        <v>0.1875</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9">
-        <v>1.4</v>
+        <v>0.17</v>
       </c>
       <c r="M31" s="9">
-        <v>1.79</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -2829,37 +2933,37 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E32" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>5m 11.32px</v>
+        <v>3m 3.32px</v>
       </c>
       <c r="F32" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>5m 12.32px</v>
+        <v>3m 4.32px</v>
       </c>
       <c r="G32" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>4m 1.40000000000001px</v>
+        <v>1m 9.4px</v>
       </c>
       <c r="H32" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>4m 2.40000000000001px</v>
+        <v>1m 10.4px</v>
       </c>
       <c r="I32" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>3m 4.6px</v>
+        <v>2m 7.4px</v>
       </c>
       <c r="J32" s="9">
-        <v>0.6875</v>
+        <v>0.1875</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="M32" s="9">
-        <v>2.6</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2868,42 +2972,42 @@
       <c r="A33" s="12">
         <v>30</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E33" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 1.22px</v>
+        <v>2m 9.12px</v>
       </c>
       <c r="F33" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 2.22px</v>
+        <v>2m 10.12px</v>
       </c>
       <c r="G33" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 7.3px</v>
+        <v>0m 15.2px</v>
       </c>
       <c r="H33" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 8.3px</v>
+        <v>1m 0.199999999999999px</v>
       </c>
       <c r="I33" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>0m 15.24px</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1m 5.44px</v>
+      </c>
+      <c r="J33" s="9">
+        <v>-0.45</v>
+      </c>
+      <c r="K33" s="9"/>
       <c r="L33" s="9">
-        <v>0.26874999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M33" s="9">
-        <v>0.76500000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2912,42 +3016,42 @@
       <c r="A34" s="12">
         <v>31</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E34" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 9.24px</v>
+        <v>5m 11.32px</v>
       </c>
       <c r="F34" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 10.24px</v>
+        <v>5m 12.32px</v>
       </c>
       <c r="G34" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 15.32px</v>
+        <v>4m 1.40000000000001px</v>
       </c>
       <c r="H34" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 0.32px</v>
+        <v>4m 2.40000000000001px</v>
       </c>
       <c r="I34" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 15.424px</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>3m 4.6px</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0.6875</v>
+      </c>
+      <c r="K34" s="9"/>
       <c r="L34" s="9">
-        <v>0.77</v>
+        <v>3.4</v>
       </c>
       <c r="M34" s="9">
-        <v>1.7765</v>
+        <v>2.6</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2961,37 +3065,37 @@
         <v>11</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E35" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 8.12px</v>
+        <v>2m 1.22px</v>
       </c>
       <c r="F35" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 9.12px</v>
+        <v>2m 2.22px</v>
       </c>
       <c r="G35" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 14.2px</v>
+        <v>0m 7.3px</v>
       </c>
       <c r="H35" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 15.2px</v>
+        <v>0m 8.3px</v>
       </c>
       <c r="I35" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 4.44px</v>
+        <v>0m 15.24px</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9">
-        <v>-0.51249999999999996</v>
+        <v>0.1875</v>
       </c>
       <c r="L35" s="9">
-        <v>1.4</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M35" s="9">
-        <v>1.79</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3005,37 +3109,37 @@
         <v>11</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 14.52px</v>
+        <v>2m 9.24px</v>
       </c>
       <c r="F36" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 15.52px</v>
+        <v>2m 10.24px</v>
       </c>
       <c r="G36" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 4.6px</v>
+        <v>0m 15.32px</v>
       </c>
       <c r="H36" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 5.6px</v>
+        <v>1m 0.32px</v>
       </c>
       <c r="I36" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 10.12px</v>
+        <v>1m 15.424px</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9">
         <v>0.1875</v>
       </c>
       <c r="L36" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="M36" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.7765</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3049,37 +3153,37 @@
         <v>11</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E37" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>4m 9.72px</v>
+        <v>2m 8.12px</v>
       </c>
       <c r="F37" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>4m 10.72px</v>
+        <v>2m 9.12px</v>
       </c>
       <c r="G37" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>2m 15.8px</v>
+        <v>0m 14.2px</v>
       </c>
       <c r="H37" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>3m 0.799999999999997px</v>
+        <v>0m 15.2px</v>
       </c>
       <c r="I37" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 10.12px</v>
+        <v>1m 4.44px</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9">
-        <v>0.1875</v>
+        <v>-0.51249999999999996</v>
       </c>
       <c r="L37" s="9">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="M37" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -3090,40 +3194,40 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E38" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 6.22px</v>
+        <v>2m 14.52px</v>
       </c>
       <c r="F38" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 7.22px</v>
+        <v>2m 15.52px</v>
       </c>
       <c r="G38" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 12.3px</v>
+        <v>1m 4.6px</v>
       </c>
       <c r="H38" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 13.3px</v>
+        <v>1m 5.6px</v>
       </c>
       <c r="I38" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 4.24px</v>
+        <v>1m 10.12px</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L38" s="9">
-        <v>0.26874999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M38" s="9">
-        <v>0.76500000000000001</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3134,40 +3238,40 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E39" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 14.24px</v>
+        <v>4m 9.72px</v>
       </c>
       <c r="F39" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 15.24px</v>
+        <v>4m 10.72px</v>
       </c>
       <c r="G39" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 4.32px</v>
+        <v>2m 15.8px</v>
       </c>
       <c r="H39" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 5.32px</v>
+        <v>3m 0.799999999999997px</v>
       </c>
       <c r="I39" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 4.424px</v>
+        <v>1m 10.12px</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L39" s="9">
-        <v>0.77</v>
+        <v>2.8</v>
       </c>
       <c r="M39" s="9">
-        <v>1.7765</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3178,40 +3282,40 @@
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E40" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 13.12px</v>
+        <v>2m 6.22px</v>
       </c>
       <c r="F40" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 14.12px</v>
+        <v>2m 7.22px</v>
       </c>
       <c r="G40" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 3.2px</v>
+        <v>0m 12.3px</v>
       </c>
       <c r="H40" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 4.2px</v>
+        <v>0m 13.3px</v>
       </c>
       <c r="I40" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 9.44px</v>
+        <v>1m 4.24px</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L40" s="9">
-        <v>1.4</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M40" s="9">
-        <v>1.79</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -3222,40 +3326,40 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>3m 3.52px</v>
+        <v>2m 14.24px</v>
       </c>
       <c r="F41" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>3m 4.52px</v>
+        <v>2m 15.24px</v>
       </c>
       <c r="G41" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 9.6px</v>
+        <v>1m 4.32px</v>
       </c>
       <c r="H41" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 10.6px</v>
+        <v>1m 5.32px</v>
       </c>
       <c r="I41" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 15.12px</v>
+        <v>2m 4.424px</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9">
         <v>0.5</v>
       </c>
       <c r="L41" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="M41" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.7765</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -3266,40 +3370,40 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E42" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>4m 14.72px</v>
+        <v>2m 13.12px</v>
       </c>
       <c r="F42" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>4m 15.72px</v>
+        <v>2m 14.12px</v>
       </c>
       <c r="G42" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>3m 4.8px</v>
+        <v>1m 3.2px</v>
       </c>
       <c r="H42" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>3m 5.8px</v>
+        <v>1m 4.2px</v>
       </c>
       <c r="I42" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 15.12px</v>
+        <v>1m 9.44px</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="L42" s="9">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="M42" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -3308,46 +3412,42 @@
       <c r="A43" s="12">
         <v>40</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E43" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 4.22px</v>
+        <v>3m 3.52px</v>
       </c>
       <c r="F43" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 5.22px</v>
+        <v>3m 4.52px</v>
       </c>
       <c r="G43" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 10.3px</v>
+        <v>1m 9.6px</v>
       </c>
       <c r="H43" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>0m 11.3px</v>
+        <v>1m 10.6px</v>
       </c>
       <c r="I43" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 2.24px</v>
-      </c>
-      <c r="J43" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1m 15.12px</v>
+      </c>
+      <c r="J43" s="9"/>
       <c r="K43" s="9">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="L43" s="9">
-        <v>0.26874999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M43" s="9">
-        <v>0.76500000000000001</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -3356,46 +3456,42 @@
       <c r="A44" s="12">
         <v>41</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E44" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 12.24px</v>
+        <v>4m 14.72px</v>
       </c>
       <c r="F44" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 13.24px</v>
+        <v>4m 15.72px</v>
       </c>
       <c r="G44" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 2.32px</v>
+        <v>3m 4.8px</v>
       </c>
       <c r="H44" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 3.32px</v>
+        <v>3m 5.8px</v>
       </c>
       <c r="I44" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 2.424px</v>
-      </c>
-      <c r="J44" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1m 15.12px</v>
+      </c>
+      <c r="J44" s="9"/>
       <c r="K44" s="9">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="L44" s="9">
-        <v>0.77</v>
+        <v>2.8</v>
       </c>
       <c r="M44" s="9">
-        <v>1.7765</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -3411,39 +3507,39 @@
         <v>11</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E45" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 11.12px</v>
+        <v>2m 4.22px</v>
       </c>
       <c r="F45" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 12.12px</v>
+        <v>2m 5.22px</v>
       </c>
       <c r="G45" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 1.2px</v>
+        <v>0m 10.3px</v>
       </c>
       <c r="H45" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 2.2px</v>
+        <v>0m 11.3px</v>
       </c>
       <c r="I45" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 7.44px</v>
+        <v>1m 2.24px</v>
       </c>
       <c r="J45" s="9">
         <v>0.1875</v>
       </c>
       <c r="K45" s="9">
-        <v>-0.51249999999999996</v>
+        <v>0.1875</v>
       </c>
       <c r="L45" s="9">
-        <v>1.4</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M45" s="9">
-        <v>1.79</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -3459,27 +3555,27 @@
         <v>11</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>3m 1.52px</v>
+        <v>2m 12.24px</v>
       </c>
       <c r="F46" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>3m 2.52px</v>
+        <v>2m 13.24px</v>
       </c>
       <c r="G46" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 7.6px</v>
+        <v>1m 2.32px</v>
       </c>
       <c r="H46" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 8.6px</v>
+        <v>1m 3.32px</v>
       </c>
       <c r="I46" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 13.12px</v>
+        <v>2m 2.424px</v>
       </c>
       <c r="J46" s="9">
         <v>0.1875</v>
@@ -3488,10 +3584,10 @@
         <v>0.1875</v>
       </c>
       <c r="L46" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="M46" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.7765</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -3507,39 +3603,39 @@
         <v>11</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E47" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>4m 12.72px</v>
+        <v>2m 11.12px</v>
       </c>
       <c r="F47" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>4m 13.72px</v>
+        <v>2m 12.12px</v>
       </c>
       <c r="G47" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>3m 2.8px</v>
+        <v>1m 1.2px</v>
       </c>
       <c r="H47" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>3m 3.8px</v>
+        <v>1m 2.2px</v>
       </c>
       <c r="I47" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 13.12px</v>
+        <v>1m 7.44px</v>
       </c>
       <c r="J47" s="9">
         <v>0.1875</v>
       </c>
       <c r="K47" s="9">
-        <v>0.1875</v>
+        <v>-0.51249999999999996</v>
       </c>
       <c r="L47" s="9">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="M47" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -3552,42 +3648,42 @@
         <v>7</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>2m 9.22px</v>
+        <v>3m 1.52px</v>
       </c>
       <c r="F48" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>2m 10.22px</v>
+        <v>3m 2.52px</v>
       </c>
       <c r="G48" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>0m 15.3px</v>
+        <v>1m 7.6px</v>
       </c>
       <c r="H48" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 0.300000000000001px</v>
+        <v>1m 8.6px</v>
       </c>
       <c r="I48" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 7.24px</v>
+        <v>1m 13.12px</v>
       </c>
       <c r="J48" s="9">
         <v>0.1875</v>
       </c>
       <c r="K48" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L48" s="9">
-        <v>0.26874999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M48" s="9">
-        <v>0.76500000000000001</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -3600,42 +3696,42 @@
         <v>7</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E49" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>3m 1.24px</v>
+        <v>4m 12.72px</v>
       </c>
       <c r="F49" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>3m 2.24px</v>
+        <v>4m 13.72px</v>
       </c>
       <c r="G49" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 7.32px</v>
+        <v>3m 2.8px</v>
       </c>
       <c r="H49" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 8.32px</v>
+        <v>3m 3.8px</v>
       </c>
       <c r="I49" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 7.424px</v>
+        <v>1m 13.12px</v>
       </c>
       <c r="J49" s="9">
         <v>0.1875</v>
       </c>
       <c r="K49" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L49" s="9">
-        <v>0.77</v>
+        <v>2.8</v>
       </c>
       <c r="M49" s="9">
-        <v>1.7765</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -3648,42 +3744,42 @@
         <v>7</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E50" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>3m 0.120000000000005px</v>
+        <v>2m 9.22px</v>
       </c>
       <c r="F50" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>3m 1.12px</v>
+        <v>2m 10.22px</v>
       </c>
       <c r="G50" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 6.2px</v>
+        <v>0m 15.3px</v>
       </c>
       <c r="H50" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 7.2px</v>
+        <v>1m 0.300000000000001px</v>
       </c>
       <c r="I50" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>1m 12.44px</v>
+        <v>1m 7.24px</v>
       </c>
       <c r="J50" s="9">
         <v>0.1875</v>
       </c>
       <c r="K50" s="9">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L50" s="9">
-        <v>1.4</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M50" s="9">
-        <v>1.79</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -3696,30 +3792,30 @@
         <v>7</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>3m 6.52px</v>
+        <v>3m 1.24px</v>
       </c>
       <c r="F51" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>3m 7.52px</v>
+        <v>3m 2.24px</v>
       </c>
       <c r="G51" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>1m 12.6px</v>
+        <v>1m 7.32px</v>
       </c>
       <c r="H51" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>1m 13.6px</v>
+        <v>1m 8.32px</v>
       </c>
       <c r="I51" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 2.12px</v>
+        <v>2m 7.424px</v>
       </c>
       <c r="J51" s="9">
         <v>0.1875</v>
@@ -3728,10 +3824,10 @@
         <v>0.5</v>
       </c>
       <c r="L51" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="M51" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.7765</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -3744,58 +3840,154 @@
         <v>7</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E52" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>5m 1.72px</v>
+        <v>3m 0.120000000000005px</v>
       </c>
       <c r="F52" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>5m 2.72px</v>
+        <v>3m 1.12px</v>
       </c>
       <c r="G52" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>3m 7.8px</v>
+        <v>1m 6.2px</v>
       </c>
       <c r="H52" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>3m 8.8px</v>
+        <v>1m 7.2px</v>
       </c>
       <c r="I52" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>2m 2.12px</v>
+        <v>1m 12.44px</v>
       </c>
       <c r="J52" s="9">
         <v>0.1875</v>
       </c>
       <c r="K52" s="9">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="L52" s="9">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="M52" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="A53" s="12">
+        <v>50</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>3m 6.52px</v>
+      </c>
+      <c r="F53" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>3m 7.52px</v>
+      </c>
+      <c r="G53" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>1m 12.6px</v>
+      </c>
+      <c r="H53" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>1m 13.6px</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>2m 2.12px</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M53" s="9">
+        <v>1.4450000000000001</v>
+      </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>51</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>5m 1.72px</v>
+      </c>
+      <c r="F54" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>5m 2.72px</v>
+      </c>
+      <c r="G54" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>3m 7.8px</v>
+      </c>
+      <c r="H54" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>3m 8.8px</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>2m 2.12px</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="M54" s="9">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3804,15 +3996,38 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E3:I52">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="E3:I10 E12:I23 E25:I54">
+    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
+      <formula>AND(VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 2, VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
+      <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:I23">
+    <cfRule type="expression" dxfId="17" priority="6" stopIfTrue="1">
       <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
-      <formula>AND(VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 2, VALUE(LEFT(E3, FIND("m", E3) - 1)) &lt; 3)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:I11">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+      <formula>VALUE(LEFT(E11, FIND("m", E11) - 1)) &gt;= 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
-      <formula>VALUE(LEFT(E3, FIND("m", E3) - 1)) &gt;= 3</formula>
+    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
+      <formula>AND(VALUE(LEFT(E11, FIND("m", E11) - 1)) &gt;= 2, VALUE(LEFT(E11, FIND("m", E11) - 1)) &lt; 3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:I24">
+    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
+      <formula>VALUE(LEFT(E24, FIND("m", E24) - 1)) &gt;= 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+      <formula>AND(VALUE(LEFT(E24, FIND("m", E24) - 1)) &gt;= 2, VALUE(LEFT(E24, FIND("m", E24) - 1)) &lt; 3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:I54">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+      <formula>VALUE(LEFT(E24, FIND("m", E24) - 1)) &lt; 2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3825,10 +4040,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728C2B50-FE41-4DD7-B1DD-5217FB61F131}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -3845,31 +4060,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -3878,22 +4093,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="I2" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -3915,7 +4130,7 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="8">
         <f t="shared" ref="E3" si="0">SUM(J3:L3)+1.62</f>
@@ -3955,26 +4170,26 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E52" si="5">SUM(J4:L4)+1.62</f>
+        <f t="shared" ref="E4:E54" si="5">SUM(J4:L4)+1.62</f>
         <v>1.2075</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F52" si="6">SUM(J4:L4)+0.0625+1.62</f>
+        <f t="shared" ref="F4:F54" si="6">SUM(J4:L4)+0.0625+1.62</f>
         <v>1.27</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G52" si="7">SUM(J4:L4)</f>
+        <f t="shared" ref="G4:G54" si="7">SUM(J4:L4)</f>
         <v>-0.41249999999999998</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H52" si="8">SUM(J4:L4)+0.0625</f>
+        <f t="shared" ref="H4:H54" si="8">SUM(J4:L4)+0.0625</f>
         <v>-0.35</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" ref="I4:I46" si="9">SUM(J4:K4)+M4</f>
+        <f t="shared" ref="I4:I48" si="9">SUM(J4:K4)+M4</f>
         <v>1.2075</v>
       </c>
       <c r="J4" s="9">
@@ -3997,7 +4212,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="5"/>
@@ -4036,10 +4251,10 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="5"/>
@@ -4083,7 +4298,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="5"/>
@@ -4126,10 +4341,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="5"/>
@@ -4171,7 +4386,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="5"/>
@@ -4211,7 +4426,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="5"/>
@@ -4248,38 +4463,36 @@
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="5"/>
-        <v>2.2324999999999999</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="6"/>
-        <v>2.2949999999999999</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="7"/>
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="H11" s="8">
-        <f t="shared" si="8"/>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="9"/>
-        <v>1.52</v>
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>INT(SUM(J11:L11)+1.62)&amp;"m "&amp;((SUM(J11:L11)+1.62)-INT(SUM(J11:L11)+1.62))*16&amp;"px"</f>
+        <v>2m 2.52px</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>INT(SUM(J11:L11)+0.0625+1.62)&amp;"m "&amp;((SUM(J11:L11)+0.0625+1.62)-INT(SUM(J11:L11)+0.0625+1.62))*16&amp;"px"</f>
+        <v>2m 3.52px</v>
+      </c>
+      <c r="G11" s="22" t="str">
+        <f>INT(SUM(J11:L11))&amp;"m "&amp;((SUM(J11:L11))-INT(SUM(J11:L11)))*16&amp;"px"</f>
+        <v>0m 8.6px</v>
+      </c>
+      <c r="H11" s="22" t="str">
+        <f>INT(SUM(J11:L11)+0.0625)&amp;"m "&amp;((SUM(J11:L11)+0.0625)-INT(SUM(J11:L11)+0.0625))*16&amp;"px"</f>
+        <v>0m 9.6px</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>INT(SUM(J11:K11)+M11)&amp;"m "&amp;((SUM(J11:K11)+M11)-INT(SUM(J11:K11)+M11))*16&amp;"px"</f>
+        <v>0m 4.4016px</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9">
-        <v>0.61250000000000004</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="M11" s="9">
-        <v>1.52</v>
+        <v>0.27510000000000001</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -4291,23 +4504,23 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="5"/>
-        <v>2.3387500000000001</v>
+        <v>2.2324999999999999</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="6"/>
-        <v>2.4012500000000001</v>
+        <v>2.2949999999999999</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="7"/>
-        <v>0.71875</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="8"/>
-        <v>0.78125</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="9"/>
@@ -4316,7 +4529,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9">
-        <v>0.71875</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="M12" s="9">
         <v>1.52</v>
@@ -4331,35 +4544,35 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="5"/>
-        <v>2.39</v>
+        <v>2.3387500000000001</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="6"/>
-        <v>2.4525000000000001</v>
+        <v>2.4012500000000001</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="7"/>
-        <v>0.77</v>
+        <v>0.71875</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="8"/>
-        <v>0.83250000000000002</v>
+        <v>0.78125</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="9"/>
-        <v>1.7765</v>
+        <v>1.52</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9">
-        <v>0.77</v>
+        <v>0.71875</v>
       </c>
       <c r="M13" s="9">
-        <v>1.7765</v>
+        <v>1.52</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -4371,35 +4584,35 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="5"/>
-        <v>2.4637500000000001</v>
+        <v>2.39</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="6"/>
-        <v>2.5262500000000001</v>
+        <v>2.4525000000000001</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="7"/>
-        <v>0.84375</v>
+        <v>0.77</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="8"/>
-        <v>0.90625</v>
+        <v>0.83250000000000002</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="9"/>
-        <v>1.52</v>
+        <v>1.7765</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9">
-        <v>0.84375</v>
+        <v>0.77</v>
       </c>
       <c r="M14" s="9">
-        <v>1.52</v>
+        <v>1.7765</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -4411,35 +4624,35 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="5"/>
-        <v>2.72</v>
+        <v>2.4637500000000001</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="6"/>
-        <v>2.7825000000000002</v>
+        <v>2.5262500000000001</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="7"/>
-        <v>1.1000000000000001</v>
+        <v>0.84375</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="8"/>
-        <v>1.1625000000000001</v>
+        <v>0.90625</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="9"/>
-        <v>1.4450000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.84375</v>
       </c>
       <c r="M15" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -4451,23 +4664,23 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="5"/>
-        <v>4.42</v>
+        <v>2.72</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="6"/>
-        <v>4.4824999999999999</v>
+        <v>2.7825000000000002</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="7"/>
-        <v>2.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="8"/>
-        <v>2.8624999999999998</v>
+        <v>1.1625000000000001</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="9"/>
@@ -4476,7 +4689,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9">
-        <v>2.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M16" s="9">
         <v>1.4450000000000001</v>
@@ -4491,35 +4704,35 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="5"/>
-        <v>1.79</v>
+        <v>4.42</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="6"/>
-        <v>1.8525</v>
+        <v>4.4824999999999999</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="7"/>
-        <v>0.17</v>
+        <v>2.8</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="8"/>
-        <v>0.23250000000000001</v>
+        <v>2.8624999999999998</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="9"/>
-        <v>1.0449999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9">
-        <v>0.17</v>
+        <v>2.8</v>
       </c>
       <c r="M17" s="9">
-        <v>1.0449999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -4531,35 +4744,35 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="5"/>
-        <v>3.02</v>
+        <v>1.79</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="6"/>
-        <v>3.0825</v>
+        <v>1.8525</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="7"/>
-        <v>1.4</v>
+        <v>0.17</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="8"/>
-        <v>1.4624999999999999</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="9"/>
-        <v>2.2749999999999999</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9">
-        <v>1.4</v>
+        <v>0.17</v>
       </c>
       <c r="M18" s="9">
-        <v>2.2749999999999999</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -4571,7 +4784,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="5"/>
@@ -4591,7 +4804,7 @@
       </c>
       <c r="I19" s="8">
         <f t="shared" si="9"/>
-        <v>1.79</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -4599,7 +4812,7 @@
         <v>1.4</v>
       </c>
       <c r="M19" s="9">
-        <v>1.79</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -4611,35 +4824,35 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="5"/>
-        <v>5.0199999999999996</v>
+        <v>3.02</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="6"/>
-        <v>5.0824999999999996</v>
+        <v>3.0825</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="7"/>
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="8"/>
-        <v>3.4624999999999999</v>
+        <v>1.4624999999999999</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="9"/>
-        <v>2.6</v>
+        <v>1.79</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="M20" s="9">
-        <v>2.6</v>
+        <v>1.79</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -4648,42 +4861,38 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="5"/>
-        <v>2.0762499999999999</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="6"/>
-        <v>2.1387499999999999</v>
+        <v>5.0824999999999996</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="7"/>
-        <v>0.45624999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="8"/>
-        <v>0.51875000000000004</v>
+        <v>3.4624999999999999</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" si="9"/>
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9">
-        <v>0.26874999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="M21" s="9">
-        <v>0.76500000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -4697,37 +4906,37 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="5"/>
-        <v>2.3200000000000003</v>
+        <v>2.0762499999999999</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="6"/>
-        <v>2.3825000000000003</v>
+        <v>2.1387499999999999</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="7"/>
-        <v>0.7</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="8"/>
-        <v>0.76249999999999996</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="9"/>
-        <v>1.6125</v>
+        <v>0.95250000000000001</v>
       </c>
       <c r="J22" s="9">
         <v>0.1875</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9">
-        <v>0.51249999999999996</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M22" s="9">
-        <v>1.425</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -4741,37 +4950,37 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="5"/>
-        <v>2.42</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="6"/>
-        <v>2.4824999999999999</v>
+        <v>2.3825000000000003</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="8"/>
-        <v>0.86250000000000004</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="9"/>
-        <v>1.7075</v>
+        <v>1.6125</v>
       </c>
       <c r="J23" s="9">
         <v>0.1875</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9">
-        <v>0.61250000000000004</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="M23" s="9">
-        <v>1.52</v>
+        <v>1.425</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -4783,113 +4992,112 @@
       <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>13</v>
+      <c r="D24" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="5"/>
-        <v>2.5262500000000001</v>
+        <f t="shared" ref="E24" si="10">SUM(J24:L24)+1.62</f>
+        <v>2.3450000000000002</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="6"/>
-        <v>2.5887500000000001</v>
+        <f t="shared" ref="F24" si="11">SUM(J24:L24)+0.0625+1.62</f>
+        <v>2.4075000000000002</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="7"/>
-        <v>0.90625</v>
+        <f t="shared" ref="G24" si="12">SUM(J24:L24)</f>
+        <v>0.72499999999999998</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="8"/>
-        <v>0.96875</v>
+        <f t="shared" ref="H24" si="13">SUM(J24:L24)+0.0625</f>
+        <v>0.78749999999999998</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="9"/>
-        <v>1.7075</v>
+        <f t="shared" ref="I24" si="14">SUM(J24:K24)+M24</f>
+        <v>0.46260000000000001</v>
       </c>
       <c r="J24" s="9">
         <v>0.1875</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9">
-        <v>0.71875</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="M24" s="9">
-        <v>1.52</v>
+        <v>0.27510000000000001</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="5"/>
-        <v>2.5775000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="6"/>
-        <v>2.64</v>
+        <v>2.4824999999999999</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="7"/>
-        <v>0.95750000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="8"/>
-        <v>1.02</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="9"/>
-        <v>1.964</v>
+        <v>1.7075</v>
       </c>
       <c r="J25" s="9">
         <v>0.1875</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9">
-        <v>0.77</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="M25" s="9">
-        <v>1.7765</v>
+        <v>1.52</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E26" s="8">
         <f t="shared" si="5"/>
-        <v>2.6512500000000001</v>
+        <v>2.5262500000000001</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" si="6"/>
-        <v>2.7137500000000001</v>
+        <v>2.5887500000000001</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="7"/>
-        <v>1.03125</v>
+        <v>0.90625</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="8"/>
-        <v>1.09375</v>
+        <v>0.96875</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="9"/>
@@ -4900,7 +5108,7 @@
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="M26" s="9">
         <v>1.52</v>
@@ -4910,793 +5118,789 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="5"/>
-        <v>2.9075000000000002</v>
+        <v>2.5775000000000001</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" si="6"/>
-        <v>2.97</v>
+        <v>2.64</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="7"/>
-        <v>1.2875000000000001</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="8"/>
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="9"/>
-        <v>1.6325000000000001</v>
+        <v>1.964</v>
       </c>
       <c r="J27" s="9">
         <v>0.1875</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="M27" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.7765</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="5"/>
-        <v>4.6074999999999999</v>
+        <v>2.6512500000000001</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" si="6"/>
-        <v>4.67</v>
+        <v>2.7137500000000001</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="7"/>
-        <v>2.9874999999999998</v>
+        <v>1.03125</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="8"/>
-        <v>3.05</v>
+        <v>1.09375</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="9"/>
-        <v>1.6325000000000001</v>
+        <v>1.7075</v>
       </c>
       <c r="J28" s="9">
         <v>0.1875</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9">
-        <v>2.8</v>
+        <v>0.84375</v>
       </c>
       <c r="M28" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29" s="8">
         <f t="shared" si="5"/>
-        <v>1.9775</v>
+        <v>2.9075000000000002</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" si="6"/>
-        <v>2.04</v>
+        <v>2.97</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="7"/>
-        <v>0.35750000000000004</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="8"/>
-        <v>0.42000000000000004</v>
+        <v>1.35</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="9"/>
-        <v>1.2324999999999999</v>
+        <v>1.6325000000000001</v>
       </c>
       <c r="J29" s="9">
         <v>0.1875</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9">
-        <v>0.17</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M29" s="9">
-        <v>1.0449999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30" s="8">
         <f t="shared" si="5"/>
-        <v>3.2075</v>
+        <v>4.6074999999999999</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" si="6"/>
-        <v>3.27</v>
+        <v>4.67</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="7"/>
-        <v>1.5874999999999999</v>
+        <v>2.9874999999999998</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="8"/>
-        <v>1.65</v>
+        <v>3.05</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="9"/>
-        <v>2.4624999999999999</v>
+        <v>1.6325000000000001</v>
       </c>
       <c r="J30" s="9">
         <v>0.1875</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="M30" s="9">
-        <v>2.2749999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" si="5"/>
-        <v>2.5700000000000003</v>
+        <v>1.9775</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" si="6"/>
-        <v>2.6325000000000003</v>
+        <v>2.04</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="7"/>
-        <v>0.95</v>
+        <v>0.35750000000000004</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="8"/>
-        <v>1.0125</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="9"/>
-        <v>1.34</v>
+        <v>1.2324999999999999</v>
       </c>
       <c r="J31" s="9">
-        <v>-0.45</v>
+        <v>0.1875</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9">
-        <v>1.4</v>
+        <v>0.17</v>
       </c>
       <c r="M31" s="9">
-        <v>1.79</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" si="5"/>
-        <v>5.7075000000000005</v>
+        <v>3.2075</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" si="6"/>
-        <v>5.7700000000000005</v>
+        <v>3.27</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="7"/>
-        <v>4.0875000000000004</v>
+        <v>1.5874999999999999</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="8"/>
-        <v>4.1500000000000004</v>
+        <v>1.65</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="9"/>
-        <v>3.2875000000000001</v>
+        <v>2.4624999999999999</v>
       </c>
       <c r="J32" s="9">
-        <v>0.6875</v>
+        <v>0.1875</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="M32" s="9">
-        <v>2.6</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
-        <v>30</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="5"/>
-        <v>2.0762499999999999</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="6"/>
-        <v>2.1387499999999999</v>
+        <v>2.6325000000000003</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="7"/>
-        <v>0.45624999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="8"/>
-        <v>0.51875000000000004</v>
+        <v>1.0125</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="9"/>
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1.34</v>
+      </c>
+      <c r="J33" s="9">
+        <v>-0.45</v>
+      </c>
+      <c r="K33" s="9"/>
       <c r="L33" s="9">
-        <v>0.26874999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="M33" s="9">
-        <v>0.76500000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
-        <v>31</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E34" s="8">
         <f t="shared" si="5"/>
-        <v>2.5775000000000001</v>
+        <v>5.7075000000000005</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" si="6"/>
-        <v>2.64</v>
+        <v>5.7700000000000005</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="7"/>
-        <v>0.95750000000000002</v>
+        <v>4.0875000000000004</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="8"/>
-        <v>1.02</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="9"/>
-        <v>1.964</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>3.2875000000000001</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0.6875</v>
+      </c>
+      <c r="K34" s="9"/>
       <c r="L34" s="9">
-        <v>0.77</v>
+        <v>3.4</v>
       </c>
       <c r="M34" s="9">
-        <v>1.7765</v>
+        <v>2.6</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E35" s="8">
         <f t="shared" si="5"/>
-        <v>2.5075000000000003</v>
+        <v>2.0762499999999999</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" si="6"/>
-        <v>2.5700000000000003</v>
+        <v>2.1387499999999999</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="7"/>
-        <v>0.88749999999999996</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="8"/>
-        <v>0.95</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="9"/>
-        <v>1.2775000000000001</v>
+        <v>0.95250000000000001</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9">
-        <v>-0.51249999999999996</v>
+        <v>0.1875</v>
       </c>
       <c r="L35" s="9">
-        <v>1.4</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M35" s="9">
-        <v>1.79</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="8">
         <f t="shared" si="5"/>
-        <v>2.9075000000000002</v>
+        <v>2.5775000000000001</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" si="6"/>
-        <v>2.97</v>
+        <v>2.64</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="7"/>
-        <v>1.2875000000000001</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="8"/>
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="9"/>
-        <v>1.6325000000000001</v>
+        <v>1.964</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9">
         <v>0.1875</v>
       </c>
       <c r="L36" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="M36" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.7765</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E37" s="8">
         <f t="shared" si="5"/>
-        <v>4.6074999999999999</v>
+        <v>2.5075000000000003</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" si="6"/>
-        <v>4.67</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="7"/>
-        <v>2.9874999999999998</v>
+        <v>0.88749999999999996</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="8"/>
-        <v>3.05</v>
+        <v>0.95</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="9"/>
-        <v>1.6325000000000001</v>
+        <v>1.2775000000000001</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9">
-        <v>0.1875</v>
+        <v>-0.51249999999999996</v>
       </c>
       <c r="L37" s="9">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="M37" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" si="5"/>
-        <v>2.3887499999999999</v>
+        <v>2.9075000000000002</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="6"/>
-        <v>2.4512499999999999</v>
+        <v>2.97</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="7"/>
-        <v>0.76875000000000004</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="8"/>
-        <v>0.83125000000000004</v>
+        <v>1.35</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="9"/>
-        <v>1.2650000000000001</v>
+        <v>1.6325000000000001</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L38" s="9">
-        <v>0.26874999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M38" s="9">
-        <v>0.76500000000000001</v>
-      </c>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E39" s="8">
         <f t="shared" si="5"/>
-        <v>2.89</v>
+        <v>4.6074999999999999</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="6"/>
-        <v>2.9525000000000001</v>
+        <v>4.67</v>
       </c>
       <c r="G39" s="8">
         <f t="shared" si="7"/>
-        <v>1.27</v>
+        <v>2.9874999999999998</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" si="8"/>
-        <v>1.3325</v>
+        <v>3.05</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="9"/>
-        <v>2.2765</v>
+        <v>1.6325000000000001</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L39" s="9">
-        <v>0.77</v>
+        <v>2.8</v>
       </c>
       <c r="M39" s="9">
-        <v>1.7765</v>
-      </c>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E40" s="8">
         <f t="shared" si="5"/>
-        <v>2.8200000000000003</v>
+        <v>2.3887499999999999</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="6"/>
-        <v>2.8825000000000003</v>
+        <v>2.4512499999999999</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" si="7"/>
-        <v>1.2</v>
+        <v>0.76875000000000004</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" si="8"/>
-        <v>1.2625</v>
+        <v>0.83125000000000004</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" si="9"/>
-        <v>1.59</v>
+        <v>1.2650000000000001</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L40" s="9">
-        <v>1.4</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M40" s="9">
-        <v>1.79</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="8">
         <f t="shared" si="5"/>
-        <v>3.22</v>
+        <v>2.89</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="6"/>
-        <v>3.2825000000000002</v>
+        <v>2.9525000000000001</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="7"/>
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="H41" s="8">
         <f t="shared" si="8"/>
-        <v>1.6625000000000001</v>
+        <v>1.3325</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" si="9"/>
-        <v>1.9450000000000001</v>
+        <v>2.2765</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9">
         <v>0.5</v>
       </c>
       <c r="L41" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="M41" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.7765</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E42" s="8">
         <f t="shared" si="5"/>
-        <v>4.92</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" si="6"/>
-        <v>4.9824999999999999</v>
+        <v>2.8825000000000003</v>
       </c>
       <c r="G42" s="8">
         <f t="shared" si="7"/>
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="8"/>
-        <v>3.3624999999999998</v>
+        <v>1.2625</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="9"/>
-        <v>1.9450000000000001</v>
+        <v>1.59</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="L42" s="9">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="M42" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
-        <v>40</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E43" s="8">
         <f t="shared" si="5"/>
-        <v>2.2637499999999999</v>
+        <v>3.22</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" si="6"/>
-        <v>2.3262499999999999</v>
+        <v>3.2825000000000002</v>
       </c>
       <c r="G43" s="8">
         <f t="shared" si="7"/>
-        <v>0.64375000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="8"/>
-        <v>0.70625000000000004</v>
+        <v>1.6625000000000001</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="9"/>
-        <v>1.1400000000000001</v>
-      </c>
-      <c r="J43" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="J43" s="9"/>
       <c r="K43" s="9">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="L43" s="9">
-        <v>0.26874999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M43" s="9">
-        <v>0.76500000000000001</v>
+        <v>1.4450000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
-        <v>41</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E44" s="8">
         <f t="shared" si="5"/>
-        <v>2.7650000000000001</v>
+        <v>4.92</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" si="6"/>
-        <v>2.8275000000000001</v>
+        <v>4.9824999999999999</v>
       </c>
       <c r="G44" s="8">
         <f t="shared" si="7"/>
-        <v>1.145</v>
+        <v>3.3</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" si="8"/>
-        <v>1.2075</v>
+        <v>3.3624999999999998</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="9"/>
-        <v>2.1515</v>
-      </c>
-      <c r="J44" s="9">
-        <v>0.1875</v>
-      </c>
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="J44" s="9"/>
       <c r="K44" s="9">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="L44" s="9">
-        <v>0.77</v>
+        <v>2.8</v>
       </c>
       <c r="M44" s="9">
-        <v>1.7765</v>
+        <v>1.4450000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>7</v>
@@ -5705,44 +5909,44 @@
         <v>11</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E45" s="8">
         <f t="shared" si="5"/>
-        <v>2.6950000000000003</v>
+        <v>2.2637499999999999</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" si="6"/>
-        <v>2.7575000000000003</v>
+        <v>2.3262499999999999</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="7"/>
-        <v>1.075</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" si="8"/>
-        <v>1.1375</v>
+        <v>0.70625000000000004</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="9"/>
-        <v>1.4650000000000001</v>
+        <v>1.1400000000000001</v>
       </c>
       <c r="J45" s="9">
         <v>0.1875</v>
       </c>
       <c r="K45" s="9">
-        <v>-0.51249999999999996</v>
+        <v>0.1875</v>
       </c>
       <c r="L45" s="9">
-        <v>1.4</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M45" s="9">
-        <v>1.79</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>7</v>
@@ -5751,27 +5955,27 @@
         <v>11</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" s="8">
         <f t="shared" si="5"/>
-        <v>3.0950000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" si="6"/>
-        <v>3.1575000000000002</v>
+        <v>2.8275000000000001</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="7"/>
-        <v>1.4750000000000001</v>
+        <v>1.145</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="8"/>
-        <v>1.5375000000000001</v>
+        <v>1.2075</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" si="9"/>
-        <v>1.82</v>
+        <v>2.1515</v>
       </c>
       <c r="J46" s="9">
         <v>0.1875</v>
@@ -5780,15 +5984,15 @@
         <v>0.1875</v>
       </c>
       <c r="L46" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="M46" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.7765</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>7</v>
@@ -5797,191 +6001,199 @@
         <v>11</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E47" s="8">
         <f t="shared" si="5"/>
-        <v>4.7949999999999999</v>
+        <v>2.6950000000000003</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" si="6"/>
-        <v>4.8574999999999999</v>
+        <v>2.7575000000000003</v>
       </c>
       <c r="G47" s="8">
         <f t="shared" si="7"/>
-        <v>3.1749999999999998</v>
+        <v>1.075</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" si="8"/>
-        <v>3.2374999999999998</v>
+        <v>1.1375</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" si="9"/>
+        <v>1.4650000000000001</v>
       </c>
       <c r="J47" s="9">
         <v>0.1875</v>
       </c>
       <c r="K47" s="9">
-        <v>0.1875</v>
+        <v>-0.51249999999999996</v>
       </c>
       <c r="L47" s="9">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="M47" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E48" s="8">
         <f t="shared" si="5"/>
-        <v>2.5762499999999999</v>
+        <v>3.0950000000000002</v>
       </c>
       <c r="F48" s="8">
         <f t="shared" si="6"/>
-        <v>2.6387499999999999</v>
+        <v>3.1575000000000002</v>
       </c>
       <c r="G48" s="8">
         <f t="shared" si="7"/>
-        <v>0.95625000000000004</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" si="8"/>
-        <v>1.01875</v>
+        <v>1.5375000000000001</v>
+      </c>
+      <c r="I48" s="8">
+        <f t="shared" si="9"/>
+        <v>1.82</v>
       </c>
       <c r="J48" s="9">
         <v>0.1875</v>
       </c>
       <c r="K48" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L48" s="9">
-        <v>0.26874999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M48" s="9">
-        <v>0.76500000000000001</v>
+        <v>1.4450000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E49" s="8">
         <f t="shared" si="5"/>
-        <v>3.0775000000000001</v>
+        <v>4.7949999999999999</v>
       </c>
       <c r="F49" s="8">
         <f t="shared" si="6"/>
-        <v>3.14</v>
+        <v>4.8574999999999999</v>
       </c>
       <c r="G49" s="8">
         <f t="shared" si="7"/>
-        <v>1.4575</v>
+        <v>3.1749999999999998</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="8"/>
-        <v>1.52</v>
+        <v>3.2374999999999998</v>
       </c>
       <c r="J49" s="9">
         <v>0.1875</v>
       </c>
       <c r="K49" s="9">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L49" s="9">
-        <v>0.77</v>
+        <v>2.8</v>
       </c>
       <c r="M49" s="9">
-        <v>1.7765</v>
+        <v>1.4450000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E50" s="8">
         <f t="shared" si="5"/>
-        <v>3.0075000000000003</v>
+        <v>2.5762499999999999</v>
       </c>
       <c r="F50" s="8">
         <f t="shared" si="6"/>
-        <v>3.0700000000000003</v>
+        <v>2.6387499999999999</v>
       </c>
       <c r="G50" s="8">
         <f t="shared" si="7"/>
-        <v>1.3875</v>
+        <v>0.95625000000000004</v>
       </c>
       <c r="H50" s="8">
         <f t="shared" si="8"/>
-        <v>1.45</v>
+        <v>1.01875</v>
       </c>
       <c r="J50" s="9">
         <v>0.1875</v>
       </c>
       <c r="K50" s="9">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L50" s="9">
-        <v>1.4</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="M50" s="9">
-        <v>1.79</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="8">
         <f t="shared" si="5"/>
-        <v>3.4075000000000002</v>
+        <v>3.0775000000000001</v>
       </c>
       <c r="F51" s="8">
         <f t="shared" si="6"/>
-        <v>3.47</v>
+        <v>3.14</v>
       </c>
       <c r="G51" s="8">
         <f t="shared" si="7"/>
-        <v>1.7875000000000001</v>
+        <v>1.4575</v>
       </c>
       <c r="H51" s="8">
         <f t="shared" si="8"/>
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="J51" s="9">
         <v>0.1875</v>
@@ -5990,51 +6202,135 @@
         <v>0.5</v>
       </c>
       <c r="L51" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="M51" s="9">
-        <v>1.4450000000000001</v>
+        <v>1.7765</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E52" s="8">
         <f t="shared" si="5"/>
-        <v>5.1074999999999999</v>
+        <v>3.0075000000000003</v>
       </c>
       <c r="F52" s="8">
         <f t="shared" si="6"/>
-        <v>5.17</v>
+        <v>3.0700000000000003</v>
       </c>
       <c r="G52" s="8">
         <f t="shared" si="7"/>
-        <v>3.4874999999999998</v>
+        <v>1.3875</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="8"/>
-        <v>3.55</v>
+        <v>1.45</v>
       </c>
       <c r="J52" s="9">
         <v>0.1875</v>
       </c>
       <c r="K52" s="9">
+        <v>-0.2</v>
+      </c>
+      <c r="L52" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="M52" s="9">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <v>49</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="8">
+        <f t="shared" si="5"/>
+        <v>3.4075000000000002</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="6"/>
+        <v>3.47</v>
+      </c>
+      <c r="G53" s="8">
+        <f t="shared" si="7"/>
+        <v>1.7875000000000001</v>
+      </c>
+      <c r="H53" s="8">
+        <f t="shared" si="8"/>
+        <v>1.85</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K53" s="9">
         <v>0.5</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L53" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M53" s="9">
+        <v>1.4450000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>50</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="8">
+        <f t="shared" si="5"/>
+        <v>5.1074999999999999</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="6"/>
+        <v>5.17</v>
+      </c>
+      <c r="G54" s="8">
+        <f t="shared" si="7"/>
+        <v>3.4874999999999998</v>
+      </c>
+      <c r="H54" s="8">
+        <f t="shared" si="8"/>
+        <v>3.55</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="9">
         <v>2.8</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M54" s="9">
         <v>1.4450000000000001</v>
       </c>
     </row>
@@ -6045,15 +6341,26 @@
     <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E3:H52">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="E3:H10 E12:H54">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>VALUE(E3) &lt; 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>AND(VALUE(E3) &gt;= 2, VALUE(E3) &lt; 3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>VALUE(E3) &gt; 3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:I11">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+      <formula>VALUE(LEFT(E11, FIND("m", E11) - 1)) &gt;= 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>AND(VALUE(LEFT(E11, FIND("m", E11) - 1)) &gt;= 2, VALUE(LEFT(E11, FIND("m", E11) - 1)) &lt; 3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>VALUE(LEFT(E11, FIND("m", E11) - 1)) &lt; 2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6086,31 +6393,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -6119,22 +6426,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="I2" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -6156,7 +6463,7 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" ref="E3" si="0">INT(SUM(J3:L3)+1.62)&amp;"m "&amp;((SUM(J3:L3)+1.62)-INT(SUM(J3:L3)+1.62))*16&amp;"px"</f>
@@ -6196,7 +6503,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" ref="E4:E44" si="5">INT(SUM(J4:L4)+1.62)&amp;"m "&amp;((SUM(J4:L4)+1.62)-INT(SUM(J4:L4)+1.62))*16&amp;"px"</f>
@@ -6238,7 +6545,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6277,10 +6584,10 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6324,7 +6631,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6367,10 +6674,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6412,7 +6719,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6452,7 +6759,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6612,7 +6919,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6732,7 +7039,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E17" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6772,7 +7079,7 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E18" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6814,7 +7121,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="8" t="str">
         <f t="shared" si="5"/>
@@ -6858,7 +7165,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7034,7 +7341,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7166,7 +7473,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E27" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7210,7 +7517,7 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E28" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7254,7 +7561,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7427,10 +7734,10 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E33" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7471,7 +7778,7 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>14</v>
@@ -7515,7 +7822,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>15</v>
@@ -7559,7 +7866,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>16</v>
@@ -7608,7 +7915,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E37" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7797,10 +8104,10 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E41" s="8" t="str">
         <f t="shared" si="5"/>
@@ -7845,7 +8152,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>14</v>
@@ -7893,7 +8200,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>15</v>
@@ -7941,7 +8248,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>16</v>
@@ -8028,31 +8335,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -8061,22 +8368,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="I2" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -8098,7 +8405,7 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="8">
         <f t="shared" ref="E3" si="0">SUM(J3:L3)+1.62</f>
@@ -8138,7 +8445,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E44" si="5">SUM(J4:L4)+1.62</f>
@@ -8180,7 +8487,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="5"/>
@@ -8219,10 +8526,10 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="5"/>
@@ -8266,7 +8573,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="5"/>
@@ -8309,10 +8616,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="5"/>
@@ -8354,7 +8661,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="5"/>
@@ -8394,7 +8701,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="5"/>
@@ -8554,7 +8861,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="5"/>
@@ -8674,7 +8981,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="5"/>
@@ -8714,7 +9021,7 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="5"/>
@@ -8756,7 +9063,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="5"/>
@@ -8800,7 +9107,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="5"/>
@@ -8976,7 +9283,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="5"/>
@@ -9108,7 +9415,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="5"/>
@@ -9152,7 +9459,7 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="5"/>
@@ -9196,7 +9503,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" s="8">
         <f t="shared" si="5"/>
@@ -9369,10 +9676,10 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="5"/>
@@ -9413,7 +9720,7 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>14</v>
@@ -9457,7 +9764,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>15</v>
@@ -9501,7 +9808,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>16</v>
@@ -9550,7 +9857,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E37" s="8">
         <f t="shared" si="5"/>
@@ -9731,10 +10038,10 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E41" s="8">
         <f t="shared" si="5"/>
@@ -9777,7 +10084,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>14</v>
@@ -9823,7 +10130,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>15</v>
@@ -9869,7 +10176,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>16</v>
@@ -9934,11 +10241,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9024B830-7371-4AE1-9ABB-4F9074C93617}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9950,24 +10257,24 @@
   <sheetData>
     <row r="1" spans="1:4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="8">
         <v>1.62</v>
@@ -9979,7 +10286,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>7</v>
@@ -10003,13 +10310,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8">
         <v>-0.41249999999999998</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D5:D19" si="1">C5*16</f>
+        <f t="shared" ref="D5:D20" si="1">C5*16</f>
         <v>-6.6</v>
       </c>
     </row>
@@ -10018,7 +10325,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="8">
         <v>-0.41249999999999998</v>
@@ -10030,10 +10337,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8">
         <v>-0.1</v>
@@ -10045,10 +10352,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="8">
         <v>0.26874999999999999</v>
@@ -10060,10 +10367,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8">
         <v>0.51249999999999996</v>
@@ -10075,273 +10382,272 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="D10" s="4">
+        <f>C10*16</f>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="8">
         <v>0.61250000000000004</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <f t="shared" si="1"/>
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="8">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8">
         <v>0.71875</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8">
         <v>0.77</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <f t="shared" si="1"/>
         <v>12.32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="8">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="8">
         <v>0.84375</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <f t="shared" si="1"/>
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="8">
         <v>2.8</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <f t="shared" si="1"/>
         <v>44.8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="8">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8">
         <v>0.17</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <f t="shared" si="1"/>
         <v>2.72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="8">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="8">
         <v>1.4</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <f t="shared" si="1"/>
         <v>22.4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="D18" s="8">
-        <f t="shared" ref="D18" si="2">C18*16</f>
-        <v>22.4</v>
-      </c>
-    </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" ref="D19" si="2">C19*16</f>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="8">
         <v>3.4</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <f t="shared" si="1"/>
         <v>54.4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="8">
-        <v>-0.51249999999999996</v>
-      </c>
-      <c r="D21" s="8">
-        <f>C21*16</f>
-        <v>-8.1999999999999993</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C22" s="8">
+        <v>-0.51249999999999996</v>
+      </c>
+      <c r="D22" s="8">
+        <f>C22*16</f>
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="8">
         <f>0.25-1/16</f>
         <v>0.1875</v>
       </c>
-      <c r="D22" s="8">
-        <f>C22*16</f>
+      <c r="D23" s="8">
+        <f>C23*16</f>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="8">
-        <v>-0.2</v>
-      </c>
-      <c r="D24" s="8">
-        <f>C24*16</f>
-        <v>-3.2</v>
-      </c>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D25" s="8">
         <f>C25*16</f>
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="8">
+        <f>C26*16</f>
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="8">
-        <v>-0.45</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" ref="D27:D29" si="3">C27*16</f>
-        <v>-7.2</v>
-      </c>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" ref="C28:C29" si="4">0.25-1/16</f>
-        <v>0.1875</v>
+        <v>-0.45</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D28:D30" si="3">C28*16</f>
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>47</v>
+      <c r="B29" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C29:C30" si="4">0.25-1/16</f>
         <v>0.1875</v>
       </c>
       <c r="D29" s="8">
@@ -10349,39 +10655,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>19</v>
+      <c r="B30" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="C30" s="8">
+        <f t="shared" si="4"/>
+        <v>0.1875</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="8">
         <v>0.6875</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="8">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="8">
         <f>0.25-1/16</f>
         <v>0.1875</v>
       </c>
-      <c r="D32" s="8">
-        <f>C32*16</f>
+      <c r="D33" s="8">
+        <f>C33*16</f>
         <v>3</v>
       </c>
     </row>
@@ -10407,24 +10729,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="8">
         <v>1.62</v>
@@ -10436,7 +10758,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>7</v>
@@ -10460,7 +10782,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8">
         <v>-0.35</v>
@@ -10475,7 +10797,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="8">
         <v>-0.35</v>
@@ -10487,10 +10809,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8">
         <v>-0.1</v>
@@ -10502,10 +10824,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="8">
         <v>0.32500000000000001</v>
@@ -10517,10 +10839,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8">
         <v>0.52500000000000002</v>
@@ -10535,7 +10857,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8">
         <v>0.6</v>
@@ -10550,7 +10872,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="8">
         <v>0.66249999999999998</v>
@@ -10565,7 +10887,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="8">
         <v>0.77200000000000002</v>
@@ -10577,10 +10899,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="8">
         <v>0.85</v>
@@ -10595,7 +10917,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="8">
         <v>1.1599999999999999</v>
@@ -10610,7 +10932,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8">
         <v>2.81</v>
@@ -10622,10 +10944,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8">
         <v>0.19500000000000001</v>
@@ -10637,10 +10959,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="8">
         <v>1.425</v>
@@ -10661,7 +10983,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="8">
         <v>0.04</v>
@@ -10679,10 +11001,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="8">
         <v>0.39</v>
@@ -10701,7 +11023,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="8">
         <v>0.14000000000000001</v>
@@ -10716,7 +11038,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" s="8">
         <v>0.14000000000000001</v>
@@ -10735,7 +11057,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="8">
         <v>0.14000000000000001</v>
